--- a/output/excel/comparison_countries.xlsx
+++ b/output/excel/comparison_countries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="E2" t="n">
-        <v>21253</v>
+        <v>9956320</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -498,5876 +498,6390 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="E3" t="n">
-        <v>22034</v>
+        <v>10174836</v>
       </c>
       <c r="F3" t="n">
-        <v>781</v>
+        <v>218516</v>
       </c>
       <c r="G3" t="n">
-        <v>3.674775325836355</v>
+        <v>2.194746653381974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="E4" t="n">
-        <v>22854</v>
+        <v>10399926</v>
       </c>
       <c r="F4" t="n">
-        <v>820</v>
+        <v>225090</v>
       </c>
       <c r="G4" t="n">
-        <v>3.721521285286378</v>
+        <v>2.212222388645868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="E5" t="n">
-        <v>23672</v>
+        <v>10637063</v>
       </c>
       <c r="F5" t="n">
-        <v>818</v>
+        <v>237137</v>
       </c>
       <c r="G5" t="n">
-        <v>3.579242145795036</v>
+        <v>2.280179685893913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="E6" t="n">
-        <v>24462</v>
+        <v>10893776</v>
       </c>
       <c r="F6" t="n">
-        <v>790</v>
+        <v>256713</v>
       </c>
       <c r="G6" t="n">
-        <v>3.337276106792841</v>
+        <v>2.413382340595338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="E7" t="n">
-        <v>25248</v>
+        <v>11173642</v>
       </c>
       <c r="F7" t="n">
-        <v>786</v>
+        <v>279866</v>
       </c>
       <c r="G7" t="n">
-        <v>3.213146921756183</v>
+        <v>2.569044929875552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="E8" t="n">
-        <v>25989</v>
+        <v>11475445</v>
       </c>
       <c r="F8" t="n">
-        <v>741</v>
+        <v>301803</v>
       </c>
       <c r="G8" t="n">
-        <v>2.934885931558928</v>
+        <v>2.701026218667102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="E9" t="n">
-        <v>26703</v>
+        <v>11791215</v>
       </c>
       <c r="F9" t="n">
-        <v>714</v>
+        <v>315770</v>
       </c>
       <c r="G9" t="n">
-        <v>2.747316172226721</v>
+        <v>2.751701568000198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="E10" t="n">
-        <v>27363</v>
+        <v>12108963</v>
       </c>
       <c r="F10" t="n">
-        <v>660</v>
+        <v>317748</v>
       </c>
       <c r="G10" t="n">
-        <v>2.47163240085384</v>
+        <v>2.694785906287001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="E11" t="n">
-        <v>27984</v>
+        <v>12412950</v>
       </c>
       <c r="F11" t="n">
-        <v>621</v>
+        <v>303987</v>
       </c>
       <c r="G11" t="n">
-        <v>2.269487994737429</v>
+        <v>2.510429670980074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="E12" t="n">
-        <v>28567</v>
+        <v>12689160</v>
       </c>
       <c r="F12" t="n">
-        <v>583</v>
+        <v>276210</v>
       </c>
       <c r="G12" t="n">
-        <v>2.083333333333326</v>
+        <v>2.22517612654527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="E13" t="n">
-        <v>29100</v>
+        <v>12943093</v>
       </c>
       <c r="F13" t="n">
-        <v>533</v>
+        <v>253933</v>
       </c>
       <c r="G13" t="n">
-        <v>1.865789197325585</v>
+        <v>2.001180535196978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="E14" t="n">
-        <v>29596</v>
+        <v>13171306</v>
       </c>
       <c r="F14" t="n">
-        <v>496</v>
+        <v>228213</v>
       </c>
       <c r="G14" t="n">
-        <v>1.704467353951888</v>
+        <v>1.763202968564004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="E15" t="n">
-        <v>30052</v>
+        <v>13341198</v>
       </c>
       <c r="F15" t="n">
-        <v>456</v>
+        <v>169892</v>
       </c>
       <c r="G15" t="n">
-        <v>1.540748749831056</v>
+        <v>1.289864497871362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="E16" t="n">
-        <v>30456</v>
+        <v>13411056</v>
       </c>
       <c r="F16" t="n">
-        <v>404</v>
+        <v>69858</v>
       </c>
       <c r="G16" t="n">
-        <v>1.344336483428732</v>
+        <v>0.5236261391218466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="E17" t="n">
-        <v>30838</v>
+        <v>13356511</v>
       </c>
       <c r="F17" t="n">
-        <v>382</v>
+        <v>-54545</v>
       </c>
       <c r="G17" t="n">
-        <v>1.254268452850016</v>
+        <v>-0.4067166672035327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="E18" t="n">
-        <v>31269</v>
+        <v>13171673</v>
       </c>
       <c r="F18" t="n">
-        <v>431</v>
+        <v>-184838</v>
       </c>
       <c r="G18" t="n">
-        <v>1.397626305207855</v>
+        <v>-1.3838793678978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="E19" t="n">
-        <v>31845</v>
+        <v>12882528</v>
       </c>
       <c r="F19" t="n">
-        <v>576</v>
+        <v>-289145</v>
       </c>
       <c r="G19" t="n">
-        <v>1.842080015350667</v>
+        <v>-2.195203297257686</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="E20" t="n">
-        <v>32646</v>
+        <v>12537730</v>
       </c>
       <c r="F20" t="n">
-        <v>801</v>
+        <v>-344798</v>
       </c>
       <c r="G20" t="n">
-        <v>2.515308525671212</v>
+        <v>-2.676477784484532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="E21" t="n">
-        <v>33701</v>
+        <v>12204292</v>
       </c>
       <c r="F21" t="n">
-        <v>1055</v>
+        <v>-333438</v>
       </c>
       <c r="G21" t="n">
-        <v>3.231636341358812</v>
+        <v>-2.659476635722735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="E22" t="n">
-        <v>34968</v>
+        <v>11938208</v>
       </c>
       <c r="F22" t="n">
-        <v>1267</v>
+        <v>-266084</v>
       </c>
       <c r="G22" t="n">
-        <v>3.759532358090256</v>
+        <v>-2.180249374564291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="E23" t="n">
-        <v>36412</v>
+        <v>11736179</v>
       </c>
       <c r="F23" t="n">
-        <v>1444</v>
+        <v>-202029</v>
       </c>
       <c r="G23" t="n">
-        <v>4.129489819263332</v>
+        <v>-1.692289160986304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="E24" t="n">
-        <v>37946</v>
+        <v>11604534</v>
       </c>
       <c r="F24" t="n">
-        <v>1534</v>
+        <v>-131645</v>
       </c>
       <c r="G24" t="n">
-        <v>4.212896847193237</v>
+        <v>-1.121702387122758</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="E25" t="n">
-        <v>39519</v>
+        <v>11618005</v>
       </c>
       <c r="F25" t="n">
-        <v>1573</v>
+        <v>13471</v>
       </c>
       <c r="G25" t="n">
-        <v>4.145364465292789</v>
+        <v>0.1160839375368372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="E26" t="n">
-        <v>41119</v>
+        <v>11868877</v>
       </c>
       <c r="F26" t="n">
-        <v>1600</v>
+        <v>250872</v>
       </c>
       <c r="G26" t="n">
-        <v>4.04868544244541</v>
+        <v>2.15933802748407</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="E27" t="n">
-        <v>42740</v>
+        <v>12412308</v>
       </c>
       <c r="F27" t="n">
-        <v>1621</v>
+        <v>543431</v>
       </c>
       <c r="G27" t="n">
-        <v>3.942216493591766</v>
+        <v>4.578621886468293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="E28" t="n">
-        <v>44343</v>
+        <v>13299017</v>
       </c>
       <c r="F28" t="n">
-        <v>1603</v>
+        <v>886709</v>
       </c>
       <c r="G28" t="n">
-        <v>3.75058493214786</v>
+        <v>7.143788246311655</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="E29" t="n">
-        <v>45894</v>
+        <v>14485546</v>
       </c>
       <c r="F29" t="n">
-        <v>1551</v>
+        <v>1186529</v>
       </c>
       <c r="G29" t="n">
-        <v>3.49773357688925</v>
+        <v>8.921930094532549</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="E30" t="n">
-        <v>47347</v>
+        <v>15816603</v>
       </c>
       <c r="F30" t="n">
-        <v>1453</v>
+        <v>1331057</v>
       </c>
       <c r="G30" t="n">
-        <v>3.165991197106366</v>
+        <v>9.188863160560178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="E31" t="n">
-        <v>48685</v>
+        <v>17075727</v>
       </c>
       <c r="F31" t="n">
-        <v>1338</v>
+        <v>1259124</v>
       </c>
       <c r="G31" t="n">
-        <v>2.825944621623333</v>
+        <v>7.960773877930682</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E32" t="n">
-        <v>49896</v>
+        <v>18110657</v>
       </c>
       <c r="F32" t="n">
-        <v>1211</v>
+        <v>1034930</v>
       </c>
       <c r="G32" t="n">
-        <v>2.487419122933132</v>
+        <v>6.060825404388348</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="E33" t="n">
-        <v>51020</v>
+        <v>18853437</v>
       </c>
       <c r="F33" t="n">
-        <v>1124</v>
+        <v>742780</v>
       </c>
       <c r="G33" t="n">
-        <v>2.252685586018921</v>
+        <v>4.101342099295469</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="E34" t="n">
-        <v>52095</v>
+        <v>19357126</v>
       </c>
       <c r="F34" t="n">
-        <v>1075</v>
+        <v>503689</v>
       </c>
       <c r="G34" t="n">
-        <v>2.107016856134858</v>
+        <v>2.671603061022765</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="E35" t="n">
-        <v>53161</v>
+        <v>19737765</v>
       </c>
       <c r="F35" t="n">
-        <v>1066</v>
+        <v>380639</v>
       </c>
       <c r="G35" t="n">
-        <v>2.046261637393232</v>
+        <v>1.966402450446414</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E36" t="n">
-        <v>54211</v>
+        <v>20170844</v>
       </c>
       <c r="F36" t="n">
-        <v>1050</v>
+        <v>433079</v>
       </c>
       <c r="G36" t="n">
-        <v>1.975132145745939</v>
+        <v>2.19416433420907</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E37" t="n">
-        <v>55221</v>
+        <v>20779953</v>
       </c>
       <c r="F37" t="n">
-        <v>1010</v>
+        <v>609109</v>
       </c>
       <c r="G37" t="n">
-        <v>1.863090516684807</v>
+        <v>3.019749694162521</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E38" t="n">
-        <v>56171</v>
+        <v>21606988</v>
       </c>
       <c r="F38" t="n">
-        <v>950</v>
+        <v>827035</v>
       </c>
       <c r="G38" t="n">
-        <v>1.72036000796798</v>
+        <v>3.979965690971476</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1999</v>
+        <v>1965</v>
       </c>
       <c r="E39" t="n">
-        <v>57053</v>
-      </c>
-      <c r="F39" t="n">
-        <v>882</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.570205266062552</v>
-      </c>
+        <v>106119</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2000</v>
+        <v>1966</v>
       </c>
       <c r="E40" t="n">
-        <v>57821</v>
+        <v>109347</v>
       </c>
       <c r="F40" t="n">
-        <v>768</v>
+        <v>3228</v>
       </c>
       <c r="G40" t="n">
-        <v>1.346116768618644</v>
+        <v>3.041868091482214</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2001</v>
+        <v>1967</v>
       </c>
       <c r="E41" t="n">
-        <v>58494</v>
+        <v>112692</v>
       </c>
       <c r="F41" t="n">
-        <v>673</v>
+        <v>3345</v>
       </c>
       <c r="G41" t="n">
-        <v>1.163936977914592</v>
+        <v>3.059068835907697</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2002</v>
+        <v>1968</v>
       </c>
       <c r="E42" t="n">
-        <v>59080</v>
+        <v>116061</v>
       </c>
       <c r="F42" t="n">
-        <v>586</v>
+        <v>3369</v>
       </c>
       <c r="G42" t="n">
-        <v>1.001812151673676</v>
+        <v>2.989564476626549</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2003</v>
+        <v>1969</v>
       </c>
       <c r="E43" t="n">
-        <v>59504</v>
+        <v>119261</v>
       </c>
       <c r="F43" t="n">
-        <v>424</v>
+        <v>3200</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7176709546377724</v>
+        <v>2.757170798114794</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2004</v>
+        <v>1970</v>
       </c>
       <c r="E44" t="n">
-        <v>59681</v>
+        <v>122182</v>
       </c>
       <c r="F44" t="n">
-        <v>177</v>
+        <v>2921</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2974589943533168</v>
+        <v>2.449249964363864</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2005</v>
+        <v>1971</v>
       </c>
       <c r="E45" t="n">
-        <v>59562</v>
+        <v>124793</v>
       </c>
       <c r="F45" t="n">
-        <v>-119</v>
+        <v>2611</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1993934417989007</v>
+        <v>2.136975986642886</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2006</v>
+        <v>1972</v>
       </c>
       <c r="E46" t="n">
-        <v>59107</v>
+        <v>127150</v>
       </c>
       <c r="F46" t="n">
-        <v>-455</v>
+        <v>2357</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.7639098754239293</v>
+        <v>1.88872773312605</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2007</v>
+        <v>1973</v>
       </c>
       <c r="E47" t="n">
-        <v>58365</v>
+        <v>129294</v>
       </c>
       <c r="F47" t="n">
-        <v>-742</v>
+        <v>2144</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.255350466103844</v>
+        <v>1.6861974046402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2008</v>
+        <v>1974</v>
       </c>
       <c r="E48" t="n">
-        <v>57492</v>
+        <v>131307</v>
       </c>
       <c r="F48" t="n">
-        <v>-873</v>
+        <v>2013</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.49575944487278</v>
+        <v>1.556916794282803</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2009</v>
+        <v>1975</v>
       </c>
       <c r="E49" t="n">
-        <v>56683</v>
+        <v>133260</v>
       </c>
       <c r="F49" t="n">
-        <v>-809</v>
+        <v>1953</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.407152299450354</v>
+        <v>1.487354063378188</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2010</v>
+        <v>1976</v>
       </c>
       <c r="E50" t="n">
-        <v>56079</v>
+        <v>135147</v>
       </c>
       <c r="F50" t="n">
-        <v>-604</v>
+        <v>1887</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.065575216555226</v>
+        <v>1.416028815848724</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2011</v>
+        <v>1977</v>
       </c>
       <c r="E51" t="n">
-        <v>55759</v>
+        <v>136989</v>
       </c>
       <c r="F51" t="n">
-        <v>-320</v>
+        <v>1842</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.5706235845860275</v>
+        <v>1.362960332082852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2012</v>
+        <v>1978</v>
       </c>
       <c r="E52" t="n">
-        <v>55667</v>
+        <v>138965</v>
       </c>
       <c r="F52" t="n">
-        <v>-92</v>
+        <v>1976</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1649957854337414</v>
+        <v>1.442451583703797</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1962</v>
+        <v>1979</v>
       </c>
       <c r="E53" t="n">
-        <v>121091</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+        <v>141305</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2340</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.683877235275077</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1963</v>
+        <v>1980</v>
       </c>
       <c r="E54" t="n">
-        <v>127339</v>
+        <v>144155</v>
       </c>
       <c r="F54" t="n">
-        <v>6248</v>
+        <v>2850</v>
       </c>
       <c r="G54" t="n">
-        <v>5.159755886069162</v>
+        <v>2.0169137680903</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1964</v>
+        <v>1981</v>
       </c>
       <c r="E55" t="n">
-        <v>133709</v>
+        <v>147566</v>
       </c>
       <c r="F55" t="n">
-        <v>6370</v>
+        <v>3411</v>
       </c>
       <c r="G55" t="n">
-        <v>5.00239518136627</v>
+        <v>2.366203045333148</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1965</v>
+        <v>1982</v>
       </c>
       <c r="E56" t="n">
-        <v>140059</v>
+        <v>151500</v>
       </c>
       <c r="F56" t="n">
-        <v>6350</v>
+        <v>3934</v>
       </c>
       <c r="G56" t="n">
-        <v>4.749119356213871</v>
+        <v>2.665925755255283</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1966</v>
+        <v>1983</v>
       </c>
       <c r="E57" t="n">
-        <v>146382</v>
+        <v>155822</v>
       </c>
       <c r="F57" t="n">
-        <v>6323</v>
+        <v>4322</v>
       </c>
       <c r="G57" t="n">
-        <v>4.51452602117679</v>
+        <v>2.852805280528048</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1967</v>
+        <v>1984</v>
       </c>
       <c r="E58" t="n">
-        <v>152620</v>
+        <v>160347</v>
       </c>
       <c r="F58" t="n">
-        <v>6238</v>
+        <v>4525</v>
       </c>
       <c r="G58" t="n">
-        <v>4.261452910877028</v>
+        <v>2.903954512199824</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1968</v>
+        <v>1985</v>
       </c>
       <c r="E59" t="n">
-        <v>158648</v>
+        <v>164921</v>
       </c>
       <c r="F59" t="n">
-        <v>6028</v>
+        <v>4574</v>
       </c>
       <c r="G59" t="n">
-        <v>3.94967894116105</v>
+        <v>2.852563502903083</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1969</v>
+        <v>1986</v>
       </c>
       <c r="E60" t="n">
-        <v>164268</v>
+        <v>169568</v>
       </c>
       <c r="F60" t="n">
-        <v>5620</v>
+        <v>4647</v>
       </c>
       <c r="G60" t="n">
-        <v>3.542433563612524</v>
+        <v>2.81771272306135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1970</v>
+        <v>1987</v>
       </c>
       <c r="E61" t="n">
-        <v>169377</v>
+        <v>174320</v>
       </c>
       <c r="F61" t="n">
-        <v>5109</v>
+        <v>4752</v>
       </c>
       <c r="G61" t="n">
-        <v>3.110161443494786</v>
+        <v>2.802415550103787</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1971</v>
+        <v>1988</v>
       </c>
       <c r="E62" t="n">
-        <v>173889</v>
+        <v>179028</v>
       </c>
       <c r="F62" t="n">
-        <v>4512</v>
+        <v>4708</v>
       </c>
       <c r="G62" t="n">
-        <v>2.663879983704986</v>
+        <v>2.700780174391926</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1972</v>
+        <v>1989</v>
       </c>
       <c r="E63" t="n">
-        <v>177866</v>
+        <v>183469</v>
       </c>
       <c r="F63" t="n">
-        <v>3977</v>
+        <v>4441</v>
       </c>
       <c r="G63" t="n">
-        <v>2.28709119035706</v>
+        <v>2.480617557030196</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1973</v>
+        <v>1990</v>
       </c>
       <c r="E64" t="n">
-        <v>181517</v>
+        <v>187552</v>
       </c>
       <c r="F64" t="n">
-        <v>3651</v>
+        <v>4083</v>
       </c>
       <c r="G64" t="n">
-        <v>2.05266886307669</v>
+        <v>2.225444080471362</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1974</v>
+        <v>1991</v>
       </c>
       <c r="E65" t="n">
-        <v>185120</v>
+        <v>191128</v>
       </c>
       <c r="F65" t="n">
-        <v>3603</v>
+        <v>3576</v>
       </c>
       <c r="G65" t="n">
-        <v>1.984938049879625</v>
+        <v>1.906671216515954</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1975</v>
+        <v>1992</v>
       </c>
       <c r="E66" t="n">
-        <v>188896</v>
+        <v>194324</v>
       </c>
       <c r="F66" t="n">
-        <v>3776</v>
+        <v>3196</v>
       </c>
       <c r="G66" t="n">
-        <v>2.039757994814173</v>
+        <v>1.672177807542585</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1976</v>
+        <v>1993</v>
       </c>
       <c r="E67" t="n">
-        <v>192909</v>
+        <v>197622</v>
       </c>
       <c r="F67" t="n">
-        <v>4013</v>
+        <v>3298</v>
       </c>
       <c r="G67" t="n">
-        <v>2.124449432491948</v>
+        <v>1.697165558551705</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1977</v>
+        <v>1994</v>
       </c>
       <c r="E68" t="n">
-        <v>197101</v>
+        <v>201680</v>
       </c>
       <c r="F68" t="n">
-        <v>4192</v>
+        <v>4058</v>
       </c>
       <c r="G68" t="n">
-        <v>2.173045321887512</v>
+        <v>2.05341510560566</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1978</v>
+        <v>1995</v>
       </c>
       <c r="E69" t="n">
-        <v>201478</v>
+        <v>206963</v>
       </c>
       <c r="F69" t="n">
-        <v>4377</v>
+        <v>5283</v>
       </c>
       <c r="G69" t="n">
-        <v>2.220688885393773</v>
+        <v>2.619496231654095</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1979</v>
+        <v>1996</v>
       </c>
       <c r="E70" t="n">
-        <v>205984</v>
+        <v>213664</v>
       </c>
       <c r="F70" t="n">
-        <v>4506</v>
+        <v>6701</v>
       </c>
       <c r="G70" t="n">
-        <v>2.236472468458084</v>
+        <v>3.237776800684178</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1980</v>
+        <v>1997</v>
       </c>
       <c r="E71" t="n">
-        <v>210591</v>
+        <v>221580</v>
       </c>
       <c r="F71" t="n">
-        <v>4607</v>
+        <v>7916</v>
       </c>
       <c r="G71" t="n">
-        <v>2.236581482056854</v>
+        <v>3.704882432230039</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1981</v>
+        <v>1998</v>
       </c>
       <c r="E72" t="n">
-        <v>215326</v>
+        <v>230244</v>
       </c>
       <c r="F72" t="n">
-        <v>4735</v>
+        <v>8664</v>
       </c>
       <c r="G72" t="n">
-        <v>2.248434168601698</v>
+        <v>3.910100189547783</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1982</v>
+        <v>1999</v>
       </c>
       <c r="E73" t="n">
-        <v>220184</v>
+        <v>238988</v>
       </c>
       <c r="F73" t="n">
-        <v>4858</v>
+        <v>8744</v>
       </c>
       <c r="G73" t="n">
-        <v>2.256113985306007</v>
+        <v>3.79771025520752</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1983</v>
+        <v>2000</v>
       </c>
       <c r="E74" t="n">
-        <v>225084</v>
+        <v>247315</v>
       </c>
       <c r="F74" t="n">
-        <v>4900</v>
+        <v>8327</v>
       </c>
       <c r="G74" t="n">
-        <v>2.225411474039896</v>
+        <v>3.484275361106004</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1984</v>
+        <v>2001</v>
       </c>
       <c r="E75" t="n">
-        <v>229923</v>
+        <v>255063</v>
       </c>
       <c r="F75" t="n">
-        <v>4839</v>
+        <v>7748</v>
       </c>
       <c r="G75" t="n">
-        <v>2.149864050754391</v>
+        <v>3.13284677435659</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1985</v>
+        <v>1965</v>
       </c>
       <c r="E76" t="n">
-        <v>234578</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4655</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2.024590841281637</v>
-      </c>
+        <v>4580374</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1986</v>
+        <v>1966</v>
       </c>
       <c r="E77" t="n">
-        <v>239017</v>
+        <v>4648367</v>
       </c>
       <c r="F77" t="n">
-        <v>4439</v>
+        <v>67993</v>
       </c>
       <c r="G77" t="n">
-        <v>1.892334319501399</v>
+        <v>1.484442100142913</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1987</v>
+        <v>1967</v>
       </c>
       <c r="E78" t="n">
-        <v>243271</v>
+        <v>4712526</v>
       </c>
       <c r="F78" t="n">
-        <v>4254</v>
+        <v>64159</v>
       </c>
       <c r="G78" t="n">
-        <v>1.77978972206998</v>
+        <v>1.380248160267894</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1988</v>
+        <v>1968</v>
       </c>
       <c r="E79" t="n">
-        <v>247451</v>
+        <v>4773902</v>
       </c>
       <c r="F79" t="n">
-        <v>4180</v>
+        <v>61376</v>
       </c>
       <c r="G79" t="n">
-        <v>1.718248373213416</v>
+        <v>1.302401302401313</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1989</v>
+        <v>1969</v>
       </c>
       <c r="E80" t="n">
-        <v>251733</v>
+        <v>4833842</v>
       </c>
       <c r="F80" t="n">
-        <v>4282</v>
+        <v>59940</v>
       </c>
       <c r="G80" t="n">
-        <v>1.73044360297594</v>
+        <v>1.255576675013437</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="E81" t="n">
-        <v>256223</v>
+        <v>4893454</v>
       </c>
       <c r="F81" t="n">
-        <v>4490</v>
+        <v>59612</v>
       </c>
       <c r="G81" t="n">
-        <v>1.783635836382191</v>
+        <v>1.233221938160156</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1991</v>
+        <v>1971</v>
       </c>
       <c r="E82" t="n">
-        <v>261008</v>
+        <v>4953087</v>
       </c>
       <c r="F82" t="n">
-        <v>4785</v>
+        <v>59633</v>
       </c>
       <c r="G82" t="n">
-        <v>1.867513845361257</v>
+        <v>1.218627987511489</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1992</v>
+        <v>1972</v>
       </c>
       <c r="E83" t="n">
-        <v>266029</v>
+        <v>5012612</v>
       </c>
       <c r="F83" t="n">
-        <v>5021</v>
+        <v>59525</v>
       </c>
       <c r="G83" t="n">
-        <v>1.923695825415317</v>
+        <v>1.201775781447001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1993</v>
+        <v>1973</v>
       </c>
       <c r="E84" t="n">
-        <v>271069</v>
+        <v>5071954</v>
       </c>
       <c r="F84" t="n">
-        <v>5040</v>
+        <v>59342</v>
       </c>
       <c r="G84" t="n">
-        <v>1.894530295569274</v>
+        <v>1.183853847056193</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1994</v>
+        <v>1974</v>
       </c>
       <c r="E85" t="n">
-        <v>275846</v>
+        <v>5130833</v>
       </c>
       <c r="F85" t="n">
-        <v>4777</v>
+        <v>58879</v>
       </c>
       <c r="G85" t="n">
-        <v>1.762281928217546</v>
+        <v>1.160874093100994</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1995</v>
+        <v>1975</v>
       </c>
       <c r="E86" t="n">
-        <v>280184</v>
+        <v>5189153</v>
       </c>
       <c r="F86" t="n">
-        <v>4338</v>
+        <v>58320</v>
       </c>
       <c r="G86" t="n">
-        <v>1.572616604917232</v>
+        <v>1.136657536895092</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1996</v>
+        <v>1976</v>
       </c>
       <c r="E87" t="n">
-        <v>283978</v>
+        <v>5246563</v>
       </c>
       <c r="F87" t="n">
-        <v>3794</v>
+        <v>57410</v>
       </c>
       <c r="G87" t="n">
-        <v>1.354110156183075</v>
+        <v>1.106346257279367</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1997</v>
+        <v>1977</v>
       </c>
       <c r="E88" t="n">
-        <v>287358</v>
+        <v>5303307</v>
       </c>
       <c r="F88" t="n">
-        <v>3380</v>
+        <v>56744</v>
       </c>
       <c r="G88" t="n">
-        <v>1.1902330462219</v>
+        <v>1.081546147449286</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1998</v>
+        <v>1978</v>
       </c>
       <c r="E89" t="n">
-        <v>290597</v>
+        <v>5360561</v>
       </c>
       <c r="F89" t="n">
-        <v>3239</v>
+        <v>57254</v>
       </c>
       <c r="G89" t="n">
-        <v>1.127165417353959</v>
+        <v>1.079590527193686</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="E90" t="n">
-        <v>294062</v>
+        <v>5419884</v>
       </c>
       <c r="F90" t="n">
-        <v>3465</v>
+        <v>59323</v>
       </c>
       <c r="G90" t="n">
-        <v>1.192372942597486</v>
+        <v>1.106656560759212</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="E91" t="n">
-        <v>298051</v>
+        <v>5482206</v>
       </c>
       <c r="F91" t="n">
-        <v>3989</v>
+        <v>62322</v>
       </c>
       <c r="G91" t="n">
-        <v>1.356516652950734</v>
+        <v>1.149877008437827</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="E92" t="n">
-        <v>302618</v>
+        <v>5548512</v>
       </c>
       <c r="F92" t="n">
-        <v>4567</v>
+        <v>66306</v>
       </c>
       <c r="G92" t="n">
-        <v>1.53228809834558</v>
+        <v>1.209476623096606</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2002</v>
+        <v>1982</v>
       </c>
       <c r="E93" t="n">
-        <v>307660</v>
+        <v>5617885</v>
       </c>
       <c r="F93" t="n">
-        <v>5042</v>
+        <v>69373</v>
       </c>
       <c r="G93" t="n">
-        <v>1.666126932304102</v>
+        <v>1.250299179311498</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2003</v>
+        <v>1983</v>
       </c>
       <c r="E94" t="n">
-        <v>313129</v>
+        <v>5687092</v>
       </c>
       <c r="F94" t="n">
-        <v>5469</v>
+        <v>69207</v>
       </c>
       <c r="G94" t="n">
-        <v>1.777611649223165</v>
+        <v>1.231904889473534</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="E95" t="n">
-        <v>318894</v>
+        <v>5751543</v>
       </c>
       <c r="F95" t="n">
-        <v>5765</v>
+        <v>64451</v>
       </c>
       <c r="G95" t="n">
-        <v>1.84109424550265</v>
+        <v>1.133285693285768</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2005</v>
+        <v>1985</v>
       </c>
       <c r="E96" t="n">
-        <v>324859</v>
+        <v>5808179</v>
       </c>
       <c r="F96" t="n">
-        <v>5965</v>
+        <v>56636</v>
       </c>
       <c r="G96" t="n">
-        <v>1.870527510708886</v>
+        <v>0.9847096683446521</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="E97" t="n">
-        <v>331033</v>
+        <v>5855443</v>
       </c>
       <c r="F97" t="n">
-        <v>6174</v>
+        <v>47264</v>
       </c>
       <c r="G97" t="n">
-        <v>1.900516839613497</v>
+        <v>0.8137490252969171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2007</v>
+        <v>1987</v>
       </c>
       <c r="E98" t="n">
-        <v>337389</v>
+        <v>5894827</v>
       </c>
       <c r="F98" t="n">
-        <v>6356</v>
+        <v>39384</v>
       </c>
       <c r="G98" t="n">
-        <v>1.920050266891815</v>
+        <v>0.6726049591807115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="E99" t="n">
-        <v>343681</v>
+        <v>5930179</v>
       </c>
       <c r="F99" t="n">
-        <v>6292</v>
+        <v>35352</v>
       </c>
       <c r="G99" t="n">
-        <v>1.864909644357104</v>
+        <v>0.5997122561866464</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="E100" t="n">
-        <v>349604</v>
+        <v>5967018</v>
       </c>
       <c r="F100" t="n">
-        <v>5923</v>
+        <v>36839</v>
       </c>
       <c r="G100" t="n">
-        <v>1.723400478932491</v>
+        <v>0.6212122770661743</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="E101" t="n">
-        <v>354942</v>
+        <v>6009251</v>
       </c>
       <c r="F101" t="n">
-        <v>5338</v>
+        <v>42233</v>
       </c>
       <c r="G101" t="n">
-        <v>1.526870401940483</v>
+        <v>0.7077739668289951</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="E102" t="n">
-        <v>359577</v>
+        <v>6058308</v>
       </c>
       <c r="F102" t="n">
-        <v>4635</v>
+        <v>49057</v>
       </c>
       <c r="G102" t="n">
-        <v>1.305847152492512</v>
+        <v>0.8163579787231479</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="E103" t="n">
-        <v>363584</v>
+        <v>6112815</v>
       </c>
       <c r="F103" t="n">
-        <v>4007</v>
+        <v>54507</v>
       </c>
       <c r="G103" t="n">
-        <v>1.114364934353418</v>
+        <v>0.8997066507678397</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1962</v>
+        <v>1993</v>
       </c>
       <c r="E104" t="n">
-        <v>421665</v>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+        <v>6170351</v>
+      </c>
+      <c r="F104" t="n">
+        <v>57536</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.9412357481782152</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1963</v>
+        <v>1994</v>
       </c>
       <c r="E105" t="n">
-        <v>436293</v>
+        <v>6227335</v>
       </c>
       <c r="F105" t="n">
-        <v>14628</v>
+        <v>56984</v>
       </c>
       <c r="G105" t="n">
-        <v>3.469104620966879</v>
+        <v>0.923513103225404</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1964</v>
+        <v>1995</v>
       </c>
       <c r="E106" t="n">
-        <v>450542</v>
+        <v>6281190</v>
       </c>
       <c r="F106" t="n">
-        <v>14249</v>
+        <v>53855</v>
       </c>
       <c r="G106" t="n">
-        <v>3.265924504862561</v>
+        <v>0.8648161693565637</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1965</v>
+        <v>1996</v>
       </c>
       <c r="E107" t="n">
-        <v>463968</v>
+        <v>6331280</v>
       </c>
       <c r="F107" t="n">
-        <v>13426</v>
+        <v>50090</v>
       </c>
       <c r="G107" t="n">
-        <v>2.979966351638685</v>
+        <v>0.7974603538501546</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1966</v>
+        <v>1997</v>
       </c>
       <c r="E108" t="n">
-        <v>476404</v>
+        <v>6378552</v>
       </c>
       <c r="F108" t="n">
-        <v>12436</v>
+        <v>47272</v>
       </c>
       <c r="G108" t="n">
-        <v>2.680357266018341</v>
+        <v>0.7466420692182396</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1967</v>
+        <v>1998</v>
       </c>
       <c r="E109" t="n">
-        <v>487981</v>
+        <v>6423827</v>
       </c>
       <c r="F109" t="n">
-        <v>11577</v>
+        <v>45275</v>
       </c>
       <c r="G109" t="n">
-        <v>2.430080351970187</v>
+        <v>0.7098005942414609</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1968</v>
+        <v>1999</v>
       </c>
       <c r="E110" t="n">
-        <v>498940</v>
+        <v>6468476</v>
       </c>
       <c r="F110" t="n">
-        <v>10959</v>
+        <v>44649</v>
       </c>
       <c r="G110" t="n">
-        <v>2.245784159629172</v>
+        <v>0.6950529645334491</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1969</v>
+        <v>2000</v>
       </c>
       <c r="E111" t="n">
-        <v>509704</v>
+        <v>6513485</v>
       </c>
       <c r="F111" t="n">
-        <v>10764</v>
+        <v>45009</v>
       </c>
       <c r="G111" t="n">
-        <v>2.157373632100046</v>
+        <v>0.6958207775680014</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Caribbean small states</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1970</v>
+        <v>2001</v>
       </c>
       <c r="E112" t="n">
-        <v>520562</v>
+        <v>6559096</v>
       </c>
       <c r="F112" t="n">
-        <v>10858</v>
+        <v>45611</v>
       </c>
       <c r="G112" t="n">
-        <v>2.130255991712837</v>
+        <v>0.7002549326512675</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="E113" t="n">
-        <v>531635</v>
-      </c>
-      <c r="F113" t="n">
-        <v>11073</v>
-      </c>
-      <c r="G113" t="n">
-        <v>2.127124146595416</v>
-      </c>
+        <v>95440988</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="E114" t="n">
-        <v>542844</v>
+        <v>96146336</v>
       </c>
       <c r="F114" t="n">
-        <v>11209</v>
+        <v>705348</v>
       </c>
       <c r="G114" t="n">
-        <v>2.10840144083817</v>
+        <v>0.7390409663403652</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="E115" t="n">
-        <v>554138</v>
+        <v>97043270</v>
       </c>
       <c r="F115" t="n">
-        <v>11294</v>
+        <v>896934</v>
       </c>
       <c r="G115" t="n">
-        <v>2.080524054792909</v>
+        <v>0.9328842234820112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="E116" t="n">
-        <v>565415</v>
+        <v>97884022</v>
       </c>
       <c r="F116" t="n">
-        <v>11277</v>
+        <v>840752</v>
       </c>
       <c r="G116" t="n">
-        <v>2.035052640317025</v>
+        <v>0.8663681675195045</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="E117" t="n">
-        <v>576626</v>
+        <v>98606630</v>
       </c>
       <c r="F117" t="n">
-        <v>11211</v>
+        <v>722608</v>
       </c>
       <c r="G117" t="n">
-        <v>1.982791401006345</v>
+        <v>0.7382287581113145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="E118" t="n">
-        <v>587557</v>
+        <v>99134548</v>
       </c>
       <c r="F118" t="n">
-        <v>10931</v>
+        <v>527918</v>
       </c>
       <c r="G118" t="n">
-        <v>1.895682816938526</v>
+        <v>0.535377793562164</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="E119" t="n">
-        <v>598296</v>
+        <v>99635258</v>
       </c>
       <c r="F119" t="n">
-        <v>10739</v>
+        <v>500710</v>
       </c>
       <c r="G119" t="n">
-        <v>1.827737564185261</v>
+        <v>0.5050812356556023</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="E120" t="n">
-        <v>609383</v>
+        <v>100357161</v>
       </c>
       <c r="F120" t="n">
-        <v>11087</v>
+        <v>721903</v>
       </c>
       <c r="G120" t="n">
-        <v>1.85309612633211</v>
+        <v>0.7245457225593777</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="E121" t="n">
-        <v>621585</v>
+        <v>101112680</v>
       </c>
       <c r="F121" t="n">
-        <v>12202</v>
+        <v>755519</v>
       </c>
       <c r="G121" t="n">
-        <v>2.002353199875939</v>
+        <v>0.7528301841858598</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="E122" t="n">
-        <v>635307</v>
+        <v>101939916</v>
       </c>
       <c r="F122" t="n">
-        <v>13722</v>
+        <v>827236</v>
       </c>
       <c r="G122" t="n">
-        <v>2.207582229300908</v>
+        <v>0.8181327999613908</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="E123" t="n">
-        <v>651021</v>
+        <v>102860571</v>
       </c>
       <c r="F123" t="n">
-        <v>15714</v>
+        <v>920655</v>
       </c>
       <c r="G123" t="n">
-        <v>2.473449843933717</v>
+        <v>0.9031349407821798</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="E124" t="n">
-        <v>668280</v>
+        <v>103776068</v>
       </c>
       <c r="F124" t="n">
-        <v>17259</v>
+        <v>915497</v>
       </c>
       <c r="G124" t="n">
-        <v>2.651066555456727</v>
+        <v>0.8900368635908151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="E125" t="n">
-        <v>685497</v>
+        <v>104616884</v>
       </c>
       <c r="F125" t="n">
-        <v>17217</v>
+        <v>840816</v>
       </c>
       <c r="G125" t="n">
-        <v>2.576315316933031</v>
+        <v>0.8102214857475643</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="E126" t="n">
-        <v>700483</v>
+        <v>105329397</v>
       </c>
       <c r="F126" t="n">
-        <v>14986</v>
+        <v>712513</v>
       </c>
       <c r="G126" t="n">
-        <v>2.186151069953635</v>
+        <v>0.6810688416221566</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="E127" t="n">
-        <v>711775</v>
+        <v>105948616</v>
       </c>
       <c r="F127" t="n">
-        <v>11292</v>
+        <v>619219</v>
       </c>
       <c r="G127" t="n">
-        <v>1.612030556059185</v>
+        <v>0.5878881087679533</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="E128" t="n">
-        <v>718639</v>
+        <v>106576687</v>
       </c>
       <c r="F128" t="n">
-        <v>6864</v>
+        <v>628071</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9643496891573955</v>
+        <v>0.5928071773962484</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E129" t="n">
-        <v>721783</v>
+        <v>107191491</v>
       </c>
       <c r="F129" t="n">
-        <v>3144</v>
+        <v>614804</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4374936511934324</v>
+        <v>0.5768653701911486</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="E130" t="n">
-        <v>722930</v>
+        <v>107770028</v>
       </c>
       <c r="F130" t="n">
-        <v>1147</v>
+        <v>578537</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1589120275761635</v>
+        <v>0.5397228778168506</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="E131" t="n">
-        <v>724594</v>
+        <v>108326149</v>
       </c>
       <c r="F131" t="n">
-        <v>1664</v>
+        <v>556121</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2301744290595265</v>
+        <v>0.5160256616060233</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E132" t="n">
-        <v>728573</v>
+        <v>108853466</v>
       </c>
       <c r="F132" t="n">
-        <v>3979</v>
+        <v>527317</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5491351018639401</v>
+        <v>0.4867864360247776</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E133" t="n">
-        <v>735401</v>
+        <v>109360713</v>
       </c>
       <c r="F133" t="n">
-        <v>6828</v>
+        <v>507247</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9371744492315814</v>
+        <v>0.4659906741049546</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="E134" t="n">
-        <v>744469</v>
+        <v>109846594</v>
       </c>
       <c r="F134" t="n">
-        <v>9068</v>
+        <v>485881</v>
       </c>
       <c r="G134" t="n">
-        <v>1.233068761124878</v>
+        <v>0.4442920923531268</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="E135" t="n">
-        <v>754963</v>
+        <v>110296425</v>
       </c>
       <c r="F135" t="n">
-        <v>10494</v>
+        <v>449831</v>
       </c>
       <c r="G135" t="n">
-        <v>1.409595295438759</v>
+        <v>0.4095083731044058</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="E136" t="n">
-        <v>765609</v>
+        <v>110686740</v>
       </c>
       <c r="F136" t="n">
-        <v>10646</v>
+        <v>390315</v>
       </c>
       <c r="G136" t="n">
-        <v>1.410135331135431</v>
+        <v>0.3538781968681182</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="E137" t="n">
-        <v>775425</v>
+        <v>110801640</v>
       </c>
       <c r="F137" t="n">
-        <v>9816</v>
+        <v>114900</v>
       </c>
       <c r="G137" t="n">
-        <v>1.282116589538518</v>
+        <v>0.1038064722115761</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="E138" t="n">
-        <v>784386</v>
+        <v>110743128</v>
       </c>
       <c r="F138" t="n">
-        <v>8961</v>
+        <v>-58512</v>
       </c>
       <c r="G138" t="n">
-        <v>1.155624335042083</v>
+        <v>-0.05280788262700398</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="E139" t="n">
-        <v>792736</v>
+        <v>110469467</v>
       </c>
       <c r="F139" t="n">
-        <v>8350</v>
+        <v>-273661</v>
       </c>
       <c r="G139" t="n">
-        <v>1.064526903845819</v>
+        <v>-0.2471133016939908</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="E140" t="n">
-        <v>800157</v>
+        <v>110111454</v>
       </c>
       <c r="F140" t="n">
-        <v>7421</v>
+        <v>-358013</v>
       </c>
       <c r="G140" t="n">
-        <v>0.9361250151374456</v>
+        <v>-0.3240832147764383</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="E141" t="n">
-        <v>806303</v>
+        <v>110041924</v>
       </c>
       <c r="F141" t="n">
-        <v>6146</v>
+        <v>-69530</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7680992605201276</v>
+        <v>-0.06314511113439947</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E142" t="n">
-        <v>811006</v>
+        <v>110021594</v>
       </c>
       <c r="F142" t="n">
-        <v>4703</v>
+        <v>-20330</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5832794867438151</v>
+        <v>-0.01847477694046917</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E143" t="n">
-        <v>813925</v>
+        <v>109864246</v>
       </c>
       <c r="F143" t="n">
-        <v>2919</v>
+        <v>-157348</v>
       </c>
       <c r="G143" t="n">
-        <v>0.3599233544511415</v>
+        <v>-0.1430155611088502</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="E144" t="n">
-        <v>815257</v>
+        <v>109626194</v>
       </c>
       <c r="F144" t="n">
-        <v>1332</v>
+        <v>-238052</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1636514420861879</v>
+        <v>-0.2166783177122045</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E145" t="n">
-        <v>816076</v>
+        <v>109422013</v>
       </c>
       <c r="F145" t="n">
-        <v>819</v>
+        <v>-204181</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1004591190262749</v>
+        <v>-0.1862520192938533</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E146" t="n">
-        <v>817860</v>
+        <v>109238340</v>
       </c>
       <c r="F146" t="n">
-        <v>1784</v>
+        <v>-183673</v>
       </c>
       <c r="G146" t="n">
-        <v>0.2186070905160875</v>
+        <v>-0.1678574493050089</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E147" t="n">
-        <v>821604</v>
+        <v>109060951</v>
       </c>
       <c r="F147" t="n">
-        <v>3744</v>
+        <v>-177389</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4577800601569981</v>
+        <v>-0.1623871252529052</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E148" t="n">
-        <v>827870</v>
+        <v>108447824</v>
       </c>
       <c r="F148" t="n">
-        <v>6266</v>
+        <v>-613127</v>
       </c>
       <c r="G148" t="n">
-        <v>0.762654514827088</v>
+        <v>-0.5621874689135997</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Central Europe and the Baltics</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E149" t="n">
-        <v>836190</v>
+        <v>107660041</v>
       </c>
       <c r="F149" t="n">
-        <v>8320</v>
+        <v>-787783</v>
       </c>
       <c r="G149" t="n">
-        <v>1.004988705956245</v>
+        <v>-0.72641660380387</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2008</v>
+        <v>1965</v>
       </c>
       <c r="E150" t="n">
-        <v>845361</v>
-      </c>
-      <c r="F150" t="n">
-        <v>9171</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1.096760305672162</v>
-      </c>
+        <v>846970817</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2009</v>
+        <v>1966</v>
       </c>
       <c r="E151" t="n">
-        <v>853637</v>
+        <v>857049045</v>
       </c>
       <c r="F151" t="n">
-        <v>8276</v>
+        <v>10078228</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9789900409410857</v>
+        <v>1.189914433616202</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2010</v>
+        <v>1967</v>
       </c>
       <c r="E152" t="n">
-        <v>859818</v>
+        <v>866745021</v>
       </c>
       <c r="F152" t="n">
-        <v>6181</v>
+        <v>9695976</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7240782674602819</v>
+        <v>1.13132102025737</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2011</v>
+        <v>1968</v>
       </c>
       <c r="E153" t="n">
-        <v>863449</v>
+        <v>875528057</v>
       </c>
       <c r="F153" t="n">
-        <v>3631</v>
+        <v>8783036</v>
       </c>
       <c r="G153" t="n">
-        <v>0.4222986725097577</v>
+        <v>1.013335616265398</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2012</v>
+        <v>1969</v>
       </c>
       <c r="E154" t="n">
-        <v>865069</v>
+        <v>886061016</v>
       </c>
       <c r="F154" t="n">
-        <v>1620</v>
+        <v>10532959</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1876196509579708</v>
+        <v>1.203040715347403</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="E155" t="n">
-        <v>47904877</v>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+        <v>895585273</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9524257</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.07489854852163</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="E156" t="n">
-        <v>48582611</v>
+        <v>906059367</v>
       </c>
       <c r="F156" t="n">
-        <v>677734</v>
+        <v>10474094</v>
       </c>
       <c r="G156" t="n">
-        <v>1.414749483648614</v>
+        <v>1.169525037511421</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="E157" t="n">
-        <v>49230595</v>
+        <v>916286623</v>
       </c>
       <c r="F157" t="n">
-        <v>647984</v>
+        <v>10227256</v>
       </c>
       <c r="G157" t="n">
-        <v>1.333777634964894</v>
+        <v>1.128762239262859</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="E158" t="n">
-        <v>49818028</v>
+        <v>925600118</v>
       </c>
       <c r="F158" t="n">
-        <v>587433</v>
+        <v>9313495</v>
       </c>
       <c r="G158" t="n">
-        <v>1.193227504156713</v>
+        <v>1.01643904496902</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="E159" t="n">
-        <v>50330262</v>
+        <v>935983893</v>
       </c>
       <c r="F159" t="n">
-        <v>512234</v>
+        <v>10383775</v>
       </c>
       <c r="G159" t="n">
-        <v>1.028210108999095</v>
+        <v>1.121842445573251</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="E160" t="n">
-        <v>50775794</v>
+        <v>945871539</v>
       </c>
       <c r="F160" t="n">
-        <v>445532</v>
+        <v>9887646</v>
       </c>
       <c r="G160" t="n">
-        <v>0.8852169297270951</v>
+        <v>1.056390614619263</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="E161" t="n">
-        <v>51175508</v>
+        <v>954394265</v>
       </c>
       <c r="F161" t="n">
-        <v>399714</v>
+        <v>8522726</v>
       </c>
       <c r="G161" t="n">
-        <v>0.7872136868997126</v>
+        <v>0.9010447665029009</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="E162" t="n">
-        <v>51561836</v>
+        <v>963138632</v>
       </c>
       <c r="F162" t="n">
-        <v>386328</v>
+        <v>8744367</v>
       </c>
       <c r="G162" t="n">
-        <v>0.7549079923153901</v>
+        <v>0.9162216623336494</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="E163" t="n">
-        <v>51957738</v>
+        <v>971910822</v>
       </c>
       <c r="F163" t="n">
-        <v>395902</v>
+        <v>8772190</v>
       </c>
       <c r="G163" t="n">
-        <v>0.767819827051941</v>
+        <v>0.9107920405792669</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="E164" t="n">
-        <v>52371342</v>
+        <v>980829495</v>
       </c>
       <c r="F164" t="n">
-        <v>413604</v>
+        <v>8918673</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7960392733032284</v>
+        <v>0.9176431415432784</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="E165" t="n">
-        <v>52793138</v>
+        <v>989638618</v>
       </c>
       <c r="F165" t="n">
-        <v>421796</v>
+        <v>8809123</v>
       </c>
       <c r="G165" t="n">
-        <v>0.8053946755842256</v>
+        <v>0.8981299038116619</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="E166" t="n">
-        <v>53207734</v>
+        <v>998349556</v>
       </c>
       <c r="F166" t="n">
-        <v>414596</v>
+        <v>8710938</v>
       </c>
       <c r="G166" t="n">
-        <v>0.7853217590513273</v>
+        <v>0.8802140338464381</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="E167" t="n">
-        <v>53592233</v>
+        <v>1006653522</v>
       </c>
       <c r="F167" t="n">
-        <v>384499</v>
+        <v>8303966</v>
       </c>
       <c r="G167" t="n">
-        <v>0.722637427107875</v>
+        <v>0.8317693887971211</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="E168" t="n">
-        <v>53931390</v>
+        <v>1014600264</v>
       </c>
       <c r="F168" t="n">
-        <v>339157</v>
+        <v>7946742</v>
       </c>
       <c r="G168" t="n">
-        <v>0.6328473008392788</v>
+        <v>0.7894217649198287</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="E169" t="n">
-        <v>54220022</v>
+        <v>1022196070</v>
       </c>
       <c r="F169" t="n">
-        <v>288632</v>
+        <v>7595806</v>
       </c>
       <c r="G169" t="n">
-        <v>0.5351836843070501</v>
+        <v>0.7486501107395682</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="E170" t="n">
-        <v>54467702</v>
+        <v>1029842555</v>
       </c>
       <c r="F170" t="n">
-        <v>247680</v>
+        <v>7646485</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4568054214363793</v>
+        <v>0.7480448442733767</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="E171" t="n">
-        <v>54691851</v>
+        <v>1037777618</v>
       </c>
       <c r="F171" t="n">
-        <v>224149</v>
+        <v>7935063</v>
       </c>
       <c r="G171" t="n">
-        <v>0.4115264491973525</v>
+        <v>0.770512245922883</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="E172" t="n">
-        <v>54917118</v>
+        <v>1045652901</v>
       </c>
       <c r="F172" t="n">
-        <v>225267</v>
+        <v>7875283</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4118840300358473</v>
+        <v>0.7588603630879209</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="E173" t="n">
-        <v>55161527</v>
+        <v>1053638658</v>
       </c>
       <c r="F173" t="n">
-        <v>244409</v>
+        <v>7985757</v>
       </c>
       <c r="G173" t="n">
-        <v>0.4450506670798049</v>
+        <v>0.7637101176081407</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="E174" t="n">
-        <v>55430296</v>
+        <v>1062081668</v>
       </c>
       <c r="F174" t="n">
-        <v>268769</v>
+        <v>8443010</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4872399562107832</v>
+        <v>0.801319307705195</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="E175" t="n">
-        <v>55718933</v>
+        <v>1071033942</v>
       </c>
       <c r="F175" t="n">
-        <v>288637</v>
+        <v>8952274</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5207206542790166</v>
+        <v>0.8428988344048927</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="E176" t="n">
-        <v>56023770</v>
+        <v>1080817111</v>
       </c>
       <c r="F176" t="n">
-        <v>304837</v>
+        <v>9783169</v>
       </c>
       <c r="G176" t="n">
-        <v>0.5470976983712239</v>
+        <v>0.9134322094154435</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="E177" t="n">
-        <v>56337666</v>
+        <v>1090444452</v>
       </c>
       <c r="F177" t="n">
-        <v>313896</v>
+        <v>9627341</v>
       </c>
       <c r="G177" t="n">
-        <v>0.5602907480164232</v>
+        <v>0.8907465381531976</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="E178" t="n">
-        <v>56654696</v>
+        <v>1099606388</v>
       </c>
       <c r="F178" t="n">
-        <v>317030</v>
+        <v>9161936</v>
       </c>
       <c r="G178" t="n">
-        <v>0.562731867521804</v>
+        <v>0.8402019913252845</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="E179" t="n">
-        <v>56976123</v>
+        <v>1108313712</v>
       </c>
       <c r="F179" t="n">
-        <v>321427</v>
+        <v>8707324</v>
       </c>
       <c r="G179" t="n">
-        <v>0.5673439673915093</v>
+        <v>0.7918582590118683</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="E180" t="n">
-        <v>57302663</v>
+        <v>1116879852</v>
       </c>
       <c r="F180" t="n">
-        <v>326540</v>
+        <v>8566140</v>
       </c>
       <c r="G180" t="n">
-        <v>0.5731172687899466</v>
+        <v>0.7728984950066131</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="E181" t="n">
-        <v>57627105</v>
+        <v>1125172255</v>
       </c>
       <c r="F181" t="n">
-        <v>324442</v>
+        <v>8292403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.5661900913749962</v>
+        <v>0.7424615087424868</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="E182" t="n">
-        <v>57940212</v>
+        <v>1133422874</v>
       </c>
       <c r="F182" t="n">
-        <v>313107</v>
+        <v>8250619</v>
       </c>
       <c r="G182" t="n">
-        <v>0.5433328639361523</v>
+        <v>0.7332760795812465</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="E183" t="n">
-        <v>58235697</v>
+        <v>1141378668</v>
       </c>
       <c r="F183" t="n">
-        <v>295485</v>
+        <v>7955794</v>
       </c>
       <c r="G183" t="n">
-        <v>0.5099826006849995</v>
+        <v>0.7019263668045506</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="E184" t="n">
-        <v>58559311</v>
+        <v>1149382451</v>
       </c>
       <c r="F184" t="n">
-        <v>323614</v>
+        <v>8003783</v>
       </c>
       <c r="G184" t="n">
-        <v>0.555696963668173</v>
+        <v>0.7012381801409395</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="E185" t="n">
-        <v>58851217</v>
+        <v>1157244082</v>
       </c>
       <c r="F185" t="n">
-        <v>291906</v>
+        <v>7861631</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4984792256179427</v>
+        <v>0.6839873875888802</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>OECD members</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OED</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="E186" t="n">
-        <v>59106768</v>
+        <v>1165497846</v>
       </c>
       <c r="F186" t="n">
-        <v>255551</v>
+        <v>8253764</v>
       </c>
       <c r="G186" t="n">
-        <v>0.4342323116274693</v>
+        <v>0.7132258551485027</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1994</v>
+        <v>1965</v>
       </c>
       <c r="E187" t="n">
-        <v>59327192</v>
-      </c>
-      <c r="F187" t="n">
-        <v>220424</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.3729251445452109</v>
-      </c>
+        <v>10026016</v>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1995</v>
+        <v>1966</v>
       </c>
       <c r="E188" t="n">
-        <v>59541899</v>
+        <v>10214279</v>
       </c>
       <c r="F188" t="n">
-        <v>214707</v>
+        <v>188263</v>
       </c>
       <c r="G188" t="n">
-        <v>0.3619031893503433</v>
+        <v>1.877744858974895</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1996</v>
+        <v>1967</v>
       </c>
       <c r="E189" t="n">
-        <v>59753100</v>
+        <v>10406026</v>
       </c>
       <c r="F189" t="n">
-        <v>211201</v>
+        <v>191747</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3547098825316342</v>
+        <v>1.877244590636296</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1997</v>
+        <v>1968</v>
       </c>
       <c r="E190" t="n">
-        <v>59964851</v>
+        <v>10606249</v>
       </c>
       <c r="F190" t="n">
-        <v>211751</v>
+        <v>200223</v>
       </c>
       <c r="G190" t="n">
-        <v>0.3543765930135834</v>
+        <v>1.92410628226376</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1998</v>
+        <v>1969</v>
       </c>
       <c r="E191" t="n">
-        <v>60186288</v>
+        <v>10813743</v>
       </c>
       <c r="F191" t="n">
-        <v>221437</v>
+        <v>207494</v>
       </c>
       <c r="G191" t="n">
-        <v>0.3692779958712755</v>
+        <v>1.956337249860907</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1999</v>
+        <v>1970</v>
       </c>
       <c r="E192" t="n">
-        <v>60496718</v>
+        <v>11029142</v>
       </c>
       <c r="F192" t="n">
-        <v>310430</v>
+        <v>215399</v>
       </c>
       <c r="G192" t="n">
-        <v>0.5157819335859459</v>
+        <v>1.991900491809351</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="E193" t="n">
-        <v>60912500</v>
+        <v>11255183</v>
       </c>
       <c r="F193" t="n">
-        <v>415782</v>
+        <v>226041</v>
       </c>
       <c r="G193" t="n">
-        <v>0.6872802587406524</v>
+        <v>2.049488527756727</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2001</v>
+        <v>1972</v>
       </c>
       <c r="E194" t="n">
-        <v>61357430</v>
+        <v>11488089</v>
       </c>
       <c r="F194" t="n">
-        <v>444930</v>
+        <v>232906</v>
       </c>
       <c r="G194" t="n">
-        <v>0.7304412066488908</v>
+        <v>2.069322195827472</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2002</v>
+        <v>1973</v>
       </c>
       <c r="E195" t="n">
-        <v>61805267</v>
+        <v>11725327</v>
       </c>
       <c r="F195" t="n">
-        <v>447837</v>
+        <v>237238</v>
       </c>
       <c r="G195" t="n">
-        <v>0.7298822652774151</v>
+        <v>2.065078012539767</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2003</v>
+        <v>1974</v>
       </c>
       <c r="E196" t="n">
-        <v>62244886</v>
+        <v>11968103</v>
       </c>
       <c r="F196" t="n">
-        <v>439619</v>
+        <v>242776</v>
       </c>
       <c r="G196" t="n">
-        <v>0.7112969837991256</v>
+        <v>2.070526476575019</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2004</v>
+        <v>1975</v>
       </c>
       <c r="E197" t="n">
-        <v>62704895</v>
+        <v>12219436</v>
       </c>
       <c r="F197" t="n">
-        <v>460009</v>
+        <v>251333</v>
       </c>
       <c r="G197" t="n">
-        <v>0.7390309944498963</v>
+        <v>2.10002370467568</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2005</v>
+        <v>1976</v>
       </c>
       <c r="E198" t="n">
-        <v>63179351</v>
+        <v>12475022</v>
       </c>
       <c r="F198" t="n">
-        <v>474456</v>
+        <v>255586</v>
       </c>
       <c r="G198" t="n">
-        <v>0.7566490622462618</v>
+        <v>2.091634998538394</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2006</v>
+        <v>1977</v>
       </c>
       <c r="E199" t="n">
-        <v>63621381</v>
+        <v>12737735</v>
       </c>
       <c r="F199" t="n">
-        <v>442030</v>
+        <v>262713</v>
       </c>
       <c r="G199" t="n">
-        <v>0.6996431476480325</v>
+        <v>2.105912117830333</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="E200" t="n">
-        <v>64016225</v>
+        <v>13008031</v>
       </c>
       <c r="F200" t="n">
-        <v>394844</v>
+        <v>270296</v>
       </c>
       <c r="G200" t="n">
-        <v>0.6206152614008698</v>
+        <v>2.122009917775802</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2008</v>
+        <v>1979</v>
       </c>
       <c r="E201" t="n">
-        <v>64374984</v>
+        <v>13294830</v>
       </c>
       <c r="F201" t="n">
-        <v>358759</v>
+        <v>286799</v>
       </c>
       <c r="G201" t="n">
-        <v>0.5604188625617956</v>
+        <v>2.204784106064928</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2009</v>
+        <v>1980</v>
       </c>
       <c r="E202" t="n">
-        <v>64707040</v>
+        <v>13598543</v>
       </c>
       <c r="F202" t="n">
-        <v>332056</v>
+        <v>303713</v>
       </c>
       <c r="G202" t="n">
-        <v>0.5158152738337085</v>
+        <v>2.284444404328601</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2010</v>
+        <v>1981</v>
       </c>
       <c r="E203" t="n">
-        <v>65027507</v>
+        <v>13917162</v>
       </c>
       <c r="F203" t="n">
-        <v>320467</v>
+        <v>318619</v>
       </c>
       <c r="G203" t="n">
-        <v>0.49525832119659</v>
+        <v>2.343037779856272</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2011</v>
+        <v>1982</v>
       </c>
       <c r="E204" t="n">
-        <v>65342780</v>
+        <v>14253289</v>
       </c>
       <c r="F204" t="n">
-        <v>315273</v>
+        <v>336127</v>
       </c>
       <c r="G204" t="n">
-        <v>0.4848302119286219</v>
+        <v>2.415197868645924</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Other small states</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OSS</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2012</v>
+        <v>1983</v>
       </c>
       <c r="E205" t="n">
-        <v>65659809</v>
+        <v>14600203</v>
       </c>
       <c r="F205" t="n">
-        <v>317029</v>
+        <v>346914</v>
       </c>
       <c r="G205" t="n">
-        <v>0.4851783165638279</v>
+        <v>2.433922444146042</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E206" t="n">
+        <v>14962381</v>
+      </c>
+      <c r="F206" t="n">
+        <v>362178</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2.48063674183161</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15347583</v>
+      </c>
+      <c r="F207" t="n">
+        <v>385202</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2.5744699322922</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15754507</v>
+      </c>
+      <c r="F208" t="n">
+        <v>406924</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.651388169720281</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16180181</v>
+      </c>
+      <c r="F209" t="n">
+        <v>425674</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2.701918885814703</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16610017</v>
+      </c>
+      <c r="F210" t="n">
+        <v>429836</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2.656558662724473</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E211" t="n">
+        <v>17031547</v>
+      </c>
+      <c r="F211" t="n">
+        <v>421530</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2.537805951673611</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E212" t="n">
+        <v>17430779</v>
+      </c>
+      <c r="F212" t="n">
+        <v>399232</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2.344073618209785</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E213" t="n">
+        <v>17813831</v>
+      </c>
+      <c r="F213" t="n">
+        <v>383052</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2.197560992540848</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E214" t="n">
+        <v>18156566</v>
+      </c>
+      <c r="F214" t="n">
+        <v>342735</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.923982550412662</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E215" t="n">
+        <v>18476081</v>
+      </c>
+      <c r="F215" t="n">
+        <v>319515</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.75977660092772</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E216" t="n">
+        <v>18801065</v>
+      </c>
+      <c r="F216" t="n">
+        <v>324984</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1.758944442817723</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E217" t="n">
+        <v>19125016</v>
+      </c>
+      <c r="F217" t="n">
+        <v>323951</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1.723046008297935</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E218" t="n">
+        <v>19460594</v>
+      </c>
+      <c r="F218" t="n">
+        <v>335578</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1.754654741203887</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E219" t="n">
+        <v>19809624</v>
+      </c>
+      <c r="F219" t="n">
+        <v>349030</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1.793521821584676</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E220" t="n">
+        <v>20163885</v>
+      </c>
+      <c r="F220" t="n">
+        <v>354261</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1.788327734034723</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E221" t="n">
+        <v>20540138</v>
+      </c>
+      <c r="F221" t="n">
+        <v>376253</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1.865974736515308</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E222" t="n">
+        <v>20917092</v>
+      </c>
+      <c r="F222" t="n">
+        <v>376954</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.835206754696594</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Other small states</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E223" t="n">
+        <v>21276743</v>
+      </c>
+      <c r="F223" t="n">
+        <v>359651</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.71941204829047</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/comparison_countries.xlsx
+++ b/output/excel/comparison_countries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="E2" t="n">
-        <v>9956320</v>
+        <v>30456</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -498,6390 +498,4476 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1966</v>
+        <v>1977</v>
       </c>
       <c r="E3" t="n">
-        <v>10174836</v>
+        <v>30838</v>
       </c>
       <c r="F3" t="n">
-        <v>218516</v>
+        <v>382</v>
       </c>
       <c r="G3" t="n">
-        <v>2.194746653381974</v>
+        <v>1.254268452850016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1967</v>
+        <v>1978</v>
       </c>
       <c r="E4" t="n">
-        <v>10399926</v>
+        <v>31269</v>
       </c>
       <c r="F4" t="n">
-        <v>225090</v>
+        <v>431</v>
       </c>
       <c r="G4" t="n">
-        <v>2.212222388645868</v>
+        <v>1.397626305207855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1968</v>
+        <v>1979</v>
       </c>
       <c r="E5" t="n">
-        <v>10637063</v>
+        <v>31845</v>
       </c>
       <c r="F5" t="n">
-        <v>237137</v>
+        <v>576</v>
       </c>
       <c r="G5" t="n">
-        <v>2.280179685893913</v>
+        <v>1.842080015350667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1969</v>
+        <v>1980</v>
       </c>
       <c r="E6" t="n">
-        <v>10893776</v>
+        <v>32646</v>
       </c>
       <c r="F6" t="n">
-        <v>256713</v>
+        <v>801</v>
       </c>
       <c r="G6" t="n">
-        <v>2.413382340595338</v>
+        <v>2.515308525671212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1970</v>
+        <v>1981</v>
       </c>
       <c r="E7" t="n">
-        <v>11173642</v>
+        <v>33701</v>
       </c>
       <c r="F7" t="n">
-        <v>279866</v>
+        <v>1055</v>
       </c>
       <c r="G7" t="n">
-        <v>2.569044929875552</v>
+        <v>3.231636341358812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="E8" t="n">
-        <v>11475445</v>
+        <v>34968</v>
       </c>
       <c r="F8" t="n">
-        <v>301803</v>
+        <v>1267</v>
       </c>
       <c r="G8" t="n">
-        <v>2.701026218667102</v>
+        <v>3.759532358090256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1972</v>
+        <v>1983</v>
       </c>
       <c r="E9" t="n">
-        <v>11791215</v>
+        <v>36412</v>
       </c>
       <c r="F9" t="n">
-        <v>315770</v>
+        <v>1444</v>
       </c>
       <c r="G9" t="n">
-        <v>2.751701568000198</v>
+        <v>4.129489819263332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1973</v>
+        <v>1984</v>
       </c>
       <c r="E10" t="n">
-        <v>12108963</v>
+        <v>37946</v>
       </c>
       <c r="F10" t="n">
-        <v>317748</v>
+        <v>1534</v>
       </c>
       <c r="G10" t="n">
-        <v>2.694785906287001</v>
+        <v>4.212896847193237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1974</v>
+        <v>1985</v>
       </c>
       <c r="E11" t="n">
-        <v>12412950</v>
+        <v>39519</v>
       </c>
       <c r="F11" t="n">
-        <v>303987</v>
+        <v>1573</v>
       </c>
       <c r="G11" t="n">
-        <v>2.510429670980074</v>
+        <v>4.145364465292789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1975</v>
+        <v>1986</v>
       </c>
       <c r="E12" t="n">
-        <v>12689160</v>
+        <v>41119</v>
       </c>
       <c r="F12" t="n">
-        <v>276210</v>
+        <v>1600</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22517612654527</v>
+        <v>4.04868544244541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="E13" t="n">
-        <v>12943093</v>
+        <v>42740</v>
       </c>
       <c r="F13" t="n">
-        <v>253933</v>
+        <v>1621</v>
       </c>
       <c r="G13" t="n">
-        <v>2.001180535196978</v>
+        <v>3.942216493591766</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="E14" t="n">
-        <v>13171306</v>
+        <v>44343</v>
       </c>
       <c r="F14" t="n">
-        <v>228213</v>
+        <v>1603</v>
       </c>
       <c r="G14" t="n">
-        <v>1.763202968564004</v>
+        <v>3.75058493214786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="E15" t="n">
-        <v>13341198</v>
+        <v>45894</v>
       </c>
       <c r="F15" t="n">
-        <v>169892</v>
+        <v>1551</v>
       </c>
       <c r="G15" t="n">
-        <v>1.289864497871362</v>
+        <v>3.49773357688925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1979</v>
+        <v>1990</v>
       </c>
       <c r="E16" t="n">
-        <v>13411056</v>
+        <v>47347</v>
       </c>
       <c r="F16" t="n">
-        <v>69858</v>
+        <v>1453</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5236261391218466</v>
+        <v>3.165991197106366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1980</v>
+        <v>1991</v>
       </c>
       <c r="E17" t="n">
-        <v>13356511</v>
+        <v>48685</v>
       </c>
       <c r="F17" t="n">
-        <v>-54545</v>
+        <v>1338</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4067166672035327</v>
+        <v>2.825944621623333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="E18" t="n">
-        <v>13171673</v>
+        <v>49896</v>
       </c>
       <c r="F18" t="n">
-        <v>-184838</v>
+        <v>1211</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.3838793678978</v>
+        <v>2.487419122933132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1982</v>
+        <v>1993</v>
       </c>
       <c r="E19" t="n">
-        <v>12882528</v>
+        <v>51020</v>
       </c>
       <c r="F19" t="n">
-        <v>-289145</v>
+        <v>1124</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.195203297257686</v>
+        <v>2.252685586018921</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="E20" t="n">
-        <v>12537730</v>
+        <v>52095</v>
       </c>
       <c r="F20" t="n">
-        <v>-344798</v>
+        <v>1075</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.676477784484532</v>
+        <v>2.107016856134858</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1984</v>
+        <v>1995</v>
       </c>
       <c r="E21" t="n">
-        <v>12204292</v>
+        <v>53161</v>
       </c>
       <c r="F21" t="n">
-        <v>-333438</v>
+        <v>1066</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.659476635722735</v>
+        <v>2.046261637393232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1985</v>
+        <v>1996</v>
       </c>
       <c r="E22" t="n">
-        <v>11938208</v>
+        <v>54211</v>
       </c>
       <c r="F22" t="n">
-        <v>-266084</v>
+        <v>1050</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.180249374564291</v>
+        <v>1.975132145745939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1986</v>
+        <v>1997</v>
       </c>
       <c r="E23" t="n">
-        <v>11736179</v>
+        <v>55221</v>
       </c>
       <c r="F23" t="n">
-        <v>-202029</v>
+        <v>1010</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.692289160986304</v>
+        <v>1.863090516684807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="E24" t="n">
-        <v>11604534</v>
+        <v>56171</v>
       </c>
       <c r="F24" t="n">
-        <v>-131645</v>
+        <v>950</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.121702387122758</v>
+        <v>1.72036000796798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="E25" t="n">
-        <v>11618005</v>
+        <v>57053</v>
       </c>
       <c r="F25" t="n">
-        <v>13471</v>
+        <v>882</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1160839375368372</v>
+        <v>1.570205266062552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="E26" t="n">
-        <v>11868877</v>
+        <v>57821</v>
       </c>
       <c r="F26" t="n">
-        <v>250872</v>
+        <v>768</v>
       </c>
       <c r="G26" t="n">
-        <v>2.15933802748407</v>
+        <v>1.346116768618644</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="E27" t="n">
-        <v>12412308</v>
+        <v>58494</v>
       </c>
       <c r="F27" t="n">
-        <v>543431</v>
+        <v>673</v>
       </c>
       <c r="G27" t="n">
-        <v>4.578621886468293</v>
+        <v>1.163936977914592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="E28" t="n">
-        <v>13299017</v>
-      </c>
-      <c r="F28" t="n">
-        <v>886709</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7.143788246311655</v>
-      </c>
+        <v>144453278</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="E29" t="n">
-        <v>14485546</v>
+        <v>149161891</v>
       </c>
       <c r="F29" t="n">
-        <v>1186529</v>
+        <v>4708613</v>
       </c>
       <c r="G29" t="n">
-        <v>8.921930094532549</v>
+        <v>3.259609657317708</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="E30" t="n">
-        <v>15816603</v>
+        <v>154111175</v>
       </c>
       <c r="F30" t="n">
-        <v>1331057</v>
+        <v>4949284</v>
       </c>
       <c r="G30" t="n">
-        <v>9.188863160560178</v>
+        <v>3.318061984076071</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="E31" t="n">
-        <v>17075727</v>
+        <v>159218552</v>
       </c>
       <c r="F31" t="n">
-        <v>1259124</v>
+        <v>5107377</v>
       </c>
       <c r="G31" t="n">
-        <v>7.960773877930682</v>
+        <v>3.314086081038581</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="E32" t="n">
-        <v>18110657</v>
+        <v>164420785</v>
       </c>
       <c r="F32" t="n">
-        <v>1034930</v>
+        <v>5202233</v>
       </c>
       <c r="G32" t="n">
-        <v>6.060825404388348</v>
+        <v>3.267353543072038</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1996</v>
+        <v>1981</v>
       </c>
       <c r="E33" t="n">
-        <v>18853437</v>
+        <v>169698994</v>
       </c>
       <c r="F33" t="n">
-        <v>742780</v>
+        <v>5278209</v>
       </c>
       <c r="G33" t="n">
-        <v>4.101342099295469</v>
+        <v>3.210183554348078</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1997</v>
+        <v>1982</v>
       </c>
       <c r="E34" t="n">
-        <v>19357126</v>
+        <v>175061792</v>
       </c>
       <c r="F34" t="n">
-        <v>503689</v>
+        <v>5362798</v>
       </c>
       <c r="G34" t="n">
-        <v>2.671603061022765</v>
+        <v>3.160182552408064</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="E35" t="n">
-        <v>19737765</v>
+        <v>180505996</v>
       </c>
       <c r="F35" t="n">
-        <v>380639</v>
+        <v>5444204</v>
       </c>
       <c r="G35" t="n">
-        <v>1.966402450446414</v>
+        <v>3.10987562608751</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="E36" t="n">
-        <v>20170844</v>
+        <v>186035305</v>
       </c>
       <c r="F36" t="n">
-        <v>433079</v>
+        <v>5529309</v>
       </c>
       <c r="G36" t="n">
-        <v>2.19416433420907</v>
+        <v>3.063227329024576</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="E37" t="n">
-        <v>20779953</v>
+        <v>191650331</v>
       </c>
       <c r="F37" t="n">
-        <v>609109</v>
+        <v>5615026</v>
       </c>
       <c r="G37" t="n">
-        <v>3.019749694162521</v>
+        <v>3.018258281674013</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="E38" t="n">
-        <v>21606988</v>
+        <v>197338142</v>
       </c>
       <c r="F38" t="n">
-        <v>827035</v>
+        <v>5687811</v>
       </c>
       <c r="G38" t="n">
-        <v>3.979965690971476</v>
+        <v>2.967806510075888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1965</v>
+        <v>1987</v>
       </c>
       <c r="E39" t="n">
-        <v>106119</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+        <v>203084971</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5746829</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.912173461124401</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1966</v>
+        <v>1988</v>
       </c>
       <c r="E40" t="n">
-        <v>109347</v>
+        <v>208889682</v>
       </c>
       <c r="F40" t="n">
-        <v>3228</v>
+        <v>5804711</v>
       </c>
       <c r="G40" t="n">
-        <v>3.041868091482214</v>
+        <v>2.858267143756299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1967</v>
+        <v>1989</v>
       </c>
       <c r="E41" t="n">
-        <v>112692</v>
+        <v>214753970</v>
       </c>
       <c r="F41" t="n">
-        <v>3345</v>
+        <v>5864288</v>
       </c>
       <c r="G41" t="n">
-        <v>3.059068835907697</v>
+        <v>2.807361255880503</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1968</v>
+        <v>1990</v>
       </c>
       <c r="E42" t="n">
-        <v>116061</v>
+        <v>222653373</v>
       </c>
       <c r="F42" t="n">
-        <v>3369</v>
+        <v>7899403</v>
       </c>
       <c r="G42" t="n">
-        <v>2.989564476626549</v>
+        <v>3.678350160418464</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1969</v>
+        <v>1991</v>
       </c>
       <c r="E43" t="n">
-        <v>119261</v>
+        <v>228731685</v>
       </c>
       <c r="F43" t="n">
-        <v>3200</v>
+        <v>6078312</v>
       </c>
       <c r="G43" t="n">
-        <v>2.757170798114794</v>
+        <v>2.729943821690939</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1970</v>
+        <v>1992</v>
       </c>
       <c r="E44" t="n">
-        <v>122182</v>
+        <v>232956352</v>
       </c>
       <c r="F44" t="n">
-        <v>2921</v>
+        <v>4224667</v>
       </c>
       <c r="G44" t="n">
-        <v>2.449249964363864</v>
+        <v>1.846996842610582</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1971</v>
+        <v>1993</v>
       </c>
       <c r="E45" t="n">
-        <v>124793</v>
+        <v>239243261</v>
       </c>
       <c r="F45" t="n">
-        <v>2611</v>
+        <v>6286909</v>
       </c>
       <c r="G45" t="n">
-        <v>2.136975986642886</v>
+        <v>2.698749764075981</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1972</v>
+        <v>1994</v>
       </c>
       <c r="E46" t="n">
-        <v>127150</v>
+        <v>245449409</v>
       </c>
       <c r="F46" t="n">
-        <v>2357</v>
+        <v>6206148</v>
       </c>
       <c r="G46" t="n">
-        <v>1.88872773312605</v>
+        <v>2.594074321700535</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1973</v>
+        <v>1995</v>
       </c>
       <c r="E47" t="n">
-        <v>129294</v>
+        <v>253107289</v>
       </c>
       <c r="F47" t="n">
-        <v>2144</v>
+        <v>7657880</v>
       </c>
       <c r="G47" t="n">
-        <v>1.6861974046402</v>
+        <v>3.119942325874581</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1974</v>
+        <v>1996</v>
       </c>
       <c r="E48" t="n">
-        <v>131307</v>
+        <v>259000953</v>
       </c>
       <c r="F48" t="n">
-        <v>2013</v>
+        <v>5893664</v>
       </c>
       <c r="G48" t="n">
-        <v>1.556916794282803</v>
+        <v>2.328524011807498</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1975</v>
+        <v>1997</v>
       </c>
       <c r="E49" t="n">
-        <v>133260</v>
+        <v>264822188</v>
       </c>
       <c r="F49" t="n">
-        <v>1953</v>
+        <v>5821235</v>
       </c>
       <c r="G49" t="n">
-        <v>1.487354063378188</v>
+        <v>2.247572811054477</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1976</v>
+        <v>1998</v>
       </c>
       <c r="E50" t="n">
-        <v>135147</v>
+        <v>270575803</v>
       </c>
       <c r="F50" t="n">
-        <v>1887</v>
+        <v>5753615</v>
       </c>
       <c r="G50" t="n">
-        <v>1.416028815848724</v>
+        <v>2.172633284035852</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1977</v>
+        <v>1999</v>
       </c>
       <c r="E51" t="n">
-        <v>136989</v>
+        <v>276393837</v>
       </c>
       <c r="F51" t="n">
-        <v>1842</v>
+        <v>5818034</v>
       </c>
       <c r="G51" t="n">
-        <v>1.362960332082852</v>
+        <v>2.150241793794105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1978</v>
+        <v>2000</v>
       </c>
       <c r="E52" t="n">
-        <v>138965</v>
+        <v>282344154</v>
       </c>
       <c r="F52" t="n">
-        <v>1976</v>
+        <v>5950317</v>
       </c>
       <c r="G52" t="n">
-        <v>1.442451583703797</v>
+        <v>2.152839970885467</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1979</v>
+        <v>2001</v>
       </c>
       <c r="E53" t="n">
-        <v>141305</v>
+        <v>288432163</v>
       </c>
       <c r="F53" t="n">
-        <v>2340</v>
+        <v>6088009</v>
       </c>
       <c r="G53" t="n">
-        <v>1.683877235275077</v>
+        <v>2.156236958956126</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="E54" t="n">
-        <v>144155</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2850</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2.0169137680903</v>
-      </c>
+        <v>5768721</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="E55" t="n">
-        <v>147566</v>
+        <v>5863132</v>
       </c>
       <c r="F55" t="n">
-        <v>3411</v>
+        <v>94411</v>
       </c>
       <c r="G55" t="n">
-        <v>2.366203045333148</v>
+        <v>1.636601943481053</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E56" t="n">
-        <v>151500</v>
+        <v>5957925</v>
       </c>
       <c r="F56" t="n">
-        <v>3934</v>
+        <v>94793</v>
       </c>
       <c r="G56" t="n">
-        <v>2.665925755255283</v>
+        <v>1.616763872960725</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="E57" t="n">
-        <v>155822</v>
+        <v>6053640</v>
       </c>
       <c r="F57" t="n">
-        <v>4322</v>
+        <v>95715</v>
       </c>
       <c r="G57" t="n">
-        <v>2.852805280528048</v>
+        <v>1.606515691285137</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="E58" t="n">
-        <v>160347</v>
+        <v>6150733</v>
       </c>
       <c r="F58" t="n">
-        <v>4525</v>
+        <v>97093</v>
       </c>
       <c r="G58" t="n">
-        <v>2.903954512199824</v>
+        <v>1.603877997370184</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="E59" t="n">
-        <v>164921</v>
+        <v>6249314</v>
       </c>
       <c r="F59" t="n">
-        <v>4574</v>
+        <v>98581</v>
       </c>
       <c r="G59" t="n">
-        <v>2.852563502903083</v>
+        <v>1.602752062233881</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="E60" t="n">
-        <v>169568</v>
+        <v>6349553</v>
       </c>
       <c r="F60" t="n">
-        <v>4647</v>
+        <v>100239</v>
       </c>
       <c r="G60" t="n">
-        <v>2.81771272306135</v>
+        <v>1.60400005504604</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="E61" t="n">
-        <v>174320</v>
+        <v>6452069</v>
       </c>
       <c r="F61" t="n">
-        <v>4752</v>
+        <v>102516</v>
       </c>
       <c r="G61" t="n">
-        <v>2.802415550103787</v>
+        <v>1.614538850215119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="E62" t="n">
-        <v>179028</v>
+        <v>6557581</v>
       </c>
       <c r="F62" t="n">
-        <v>4708</v>
+        <v>105512</v>
       </c>
       <c r="G62" t="n">
-        <v>2.700780174391926</v>
+        <v>1.635320391024964</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="E63" t="n">
-        <v>183469</v>
+        <v>6666447</v>
       </c>
       <c r="F63" t="n">
-        <v>4441</v>
+        <v>108866</v>
       </c>
       <c r="G63" t="n">
-        <v>2.480617557030196</v>
+        <v>1.660154865033303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="E64" t="n">
-        <v>187552</v>
+        <v>6778624</v>
       </c>
       <c r="F64" t="n">
-        <v>4083</v>
+        <v>112177</v>
       </c>
       <c r="G64" t="n">
-        <v>2.225444080471362</v>
+        <v>1.682710445309166</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="E65" t="n">
-        <v>191128</v>
+        <v>6893489</v>
       </c>
       <c r="F65" t="n">
-        <v>3576</v>
+        <v>114865</v>
       </c>
       <c r="G65" t="n">
-        <v>1.906671216515954</v>
+        <v>1.694517943464624</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="E66" t="n">
-        <v>194324</v>
+        <v>7010027</v>
       </c>
       <c r="F66" t="n">
-        <v>3196</v>
+        <v>116538</v>
       </c>
       <c r="G66" t="n">
-        <v>1.672177807542585</v>
+        <v>1.690551765586346</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="E67" t="n">
-        <v>197622</v>
+        <v>7126881</v>
       </c>
       <c r="F67" t="n">
-        <v>3298</v>
+        <v>116854</v>
       </c>
       <c r="G67" t="n">
-        <v>1.697165558551705</v>
+        <v>1.666955063083209</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E68" t="n">
-        <v>201680</v>
+        <v>7159000</v>
       </c>
       <c r="F68" t="n">
-        <v>4058</v>
+        <v>32119</v>
       </c>
       <c r="G68" t="n">
-        <v>2.05341510560566</v>
+        <v>0.4506740045189472</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="E69" t="n">
-        <v>206963</v>
+        <v>7271000</v>
       </c>
       <c r="F69" t="n">
-        <v>5283</v>
+        <v>112000</v>
       </c>
       <c r="G69" t="n">
-        <v>2.619496231654095</v>
+        <v>1.564464310657909</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E70" t="n">
-        <v>213664</v>
+        <v>7382000</v>
       </c>
       <c r="F70" t="n">
-        <v>6701</v>
+        <v>111000</v>
       </c>
       <c r="G70" t="n">
-        <v>3.237776800684178</v>
+        <v>1.526612570485497</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="E71" t="n">
-        <v>221580</v>
+        <v>7495000</v>
       </c>
       <c r="F71" t="n">
-        <v>7916</v>
+        <v>113000</v>
       </c>
       <c r="G71" t="n">
-        <v>3.704882432230039</v>
+        <v>1.530750474126252</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E72" t="n">
-        <v>230244</v>
+        <v>7597000</v>
       </c>
       <c r="F72" t="n">
-        <v>8664</v>
+        <v>102000</v>
       </c>
       <c r="G72" t="n">
-        <v>3.910100189547783</v>
+        <v>1.360907271514344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E73" t="n">
-        <v>238988</v>
+        <v>7685000</v>
       </c>
       <c r="F73" t="n">
-        <v>8744</v>
+        <v>88000</v>
       </c>
       <c r="G73" t="n">
-        <v>3.79771025520752</v>
+        <v>1.158351981045147</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="E74" t="n">
-        <v>247315</v>
+        <v>7763000</v>
       </c>
       <c r="F74" t="n">
-        <v>8327</v>
+        <v>78000</v>
       </c>
       <c r="G74" t="n">
-        <v>3.484275361106004</v>
+        <v>1.014964216005199</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="E75" t="n">
-        <v>255063</v>
+        <v>7838250</v>
       </c>
       <c r="F75" t="n">
-        <v>7748</v>
+        <v>75250</v>
       </c>
       <c r="G75" t="n">
-        <v>3.13284677435659</v>
+        <v>0.9693417493237044</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1965</v>
+        <v>1998</v>
       </c>
       <c r="E76" t="n">
-        <v>4580374</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>7913000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>74750</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9536567473606983</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1966</v>
+        <v>1999</v>
       </c>
       <c r="E77" t="n">
-        <v>4648367</v>
+        <v>7982750</v>
       </c>
       <c r="F77" t="n">
-        <v>67993</v>
+        <v>69750</v>
       </c>
       <c r="G77" t="n">
-        <v>1.484442100142913</v>
+        <v>0.8814608871477336</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1967</v>
+        <v>2000</v>
       </c>
       <c r="E78" t="n">
-        <v>4712526</v>
+        <v>8048600</v>
       </c>
       <c r="F78" t="n">
-        <v>64159</v>
+        <v>65850</v>
       </c>
       <c r="G78" t="n">
-        <v>1.380248160267894</v>
+        <v>0.8249036986001101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1968</v>
+        <v>2001</v>
       </c>
       <c r="E79" t="n">
-        <v>4773902</v>
+        <v>8111200</v>
       </c>
       <c r="F79" t="n">
-        <v>61376</v>
+        <v>62600</v>
       </c>
       <c r="G79" t="n">
-        <v>1.302401302401313</v>
+        <v>0.7777750167730968</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="E80" t="n">
-        <v>4833842</v>
-      </c>
-      <c r="F80" t="n">
-        <v>59940</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1.255576675013437</v>
-      </c>
+        <v>3347173</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1970</v>
+        <v>1977</v>
       </c>
       <c r="E81" t="n">
-        <v>4893454</v>
+        <v>3433439</v>
       </c>
       <c r="F81" t="n">
-        <v>59612</v>
+        <v>86266</v>
       </c>
       <c r="G81" t="n">
-        <v>1.233221938160156</v>
+        <v>2.57727939368535</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="E82" t="n">
-        <v>4953087</v>
+        <v>3523938</v>
       </c>
       <c r="F82" t="n">
-        <v>59633</v>
+        <v>90499</v>
       </c>
       <c r="G82" t="n">
-        <v>1.218627987511489</v>
+        <v>2.635812082288336</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="E83" t="n">
-        <v>5012612</v>
+        <v>3618526</v>
       </c>
       <c r="F83" t="n">
-        <v>59525</v>
+        <v>94588</v>
       </c>
       <c r="G83" t="n">
-        <v>1.201775781447001</v>
+        <v>2.684156191170217</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="E84" t="n">
-        <v>5071954</v>
+        <v>3717165</v>
       </c>
       <c r="F84" t="n">
-        <v>59342</v>
+        <v>98639</v>
       </c>
       <c r="G84" t="n">
-        <v>1.183853847056193</v>
+        <v>2.72594421043264</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="E85" t="n">
-        <v>5130833</v>
+        <v>3820128</v>
       </c>
       <c r="F85" t="n">
-        <v>58879</v>
+        <v>102963</v>
       </c>
       <c r="G85" t="n">
-        <v>1.160874093100994</v>
+        <v>2.769933538059255</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="E86" t="n">
-        <v>5189153</v>
+        <v>3927714</v>
       </c>
       <c r="F86" t="n">
-        <v>58320</v>
+        <v>107586</v>
       </c>
       <c r="G86" t="n">
-        <v>1.136657536895092</v>
+        <v>2.816293066619768</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="E87" t="n">
-        <v>5246563</v>
+        <v>4039949</v>
       </c>
       <c r="F87" t="n">
-        <v>57410</v>
+        <v>112235</v>
       </c>
       <c r="G87" t="n">
-        <v>1.106346257279367</v>
+        <v>2.857514574635522</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="E88" t="n">
-        <v>5303307</v>
+        <v>4156819</v>
       </c>
       <c r="F88" t="n">
-        <v>56744</v>
+        <v>116870</v>
       </c>
       <c r="G88" t="n">
-        <v>1.081546147449286</v>
+        <v>2.892858300933998</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1978</v>
+        <v>1985</v>
       </c>
       <c r="E89" t="n">
-        <v>5360561</v>
+        <v>4278501</v>
       </c>
       <c r="F89" t="n">
-        <v>57254</v>
+        <v>121682</v>
       </c>
       <c r="G89" t="n">
-        <v>1.079590527193686</v>
+        <v>2.927286465925016</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="E90" t="n">
-        <v>5419884</v>
+        <v>4404506</v>
       </c>
       <c r="F90" t="n">
-        <v>59323</v>
+        <v>126005</v>
       </c>
       <c r="G90" t="n">
-        <v>1.106656560759212</v>
+        <v>2.945073519908026</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="E91" t="n">
-        <v>5482206</v>
+        <v>4535263</v>
       </c>
       <c r="F91" t="n">
-        <v>62322</v>
+        <v>130757</v>
       </c>
       <c r="G91" t="n">
-        <v>1.149877008437827</v>
+        <v>2.968709771311473</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="E92" t="n">
-        <v>5548512</v>
+        <v>4672852</v>
       </c>
       <c r="F92" t="n">
-        <v>66306</v>
+        <v>137589</v>
       </c>
       <c r="G92" t="n">
-        <v>1.209476623096606</v>
+        <v>3.033760114904038</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="E93" t="n">
-        <v>5617885</v>
+        <v>4820016</v>
       </c>
       <c r="F93" t="n">
-        <v>69373</v>
+        <v>147164</v>
       </c>
       <c r="G93" t="n">
-        <v>1.250299179311498</v>
+        <v>3.149340060417072</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1983</v>
+        <v>1990</v>
       </c>
       <c r="E94" t="n">
-        <v>5687092</v>
+        <v>4978496</v>
       </c>
       <c r="F94" t="n">
-        <v>69207</v>
+        <v>158480</v>
       </c>
       <c r="G94" t="n">
-        <v>1.231904889473534</v>
+        <v>3.287955890602845</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="E95" t="n">
-        <v>5751543</v>
+        <v>5149499</v>
       </c>
       <c r="F95" t="n">
-        <v>64451</v>
+        <v>171003</v>
       </c>
       <c r="G95" t="n">
-        <v>1.133285693285768</v>
+        <v>3.434832527735288</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="E96" t="n">
-        <v>5808179</v>
+        <v>5331803</v>
       </c>
       <c r="F96" t="n">
-        <v>56636</v>
+        <v>182304</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9847096683446521</v>
+        <v>3.540227894014536</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E97" t="n">
-        <v>5855443</v>
+        <v>5521763</v>
       </c>
       <c r="F97" t="n">
-        <v>47264</v>
+        <v>189960</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8137490252969171</v>
+        <v>3.562772292974814</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="E98" t="n">
-        <v>5894827</v>
+        <v>5714220</v>
       </c>
       <c r="F98" t="n">
-        <v>39384</v>
+        <v>192457</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6726049591807115</v>
+        <v>3.485426665360314</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="E99" t="n">
-        <v>5930179</v>
+        <v>5905558</v>
       </c>
       <c r="F99" t="n">
-        <v>35352</v>
+        <v>191338</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5997122561866464</v>
+        <v>3.348453507215332</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="E100" t="n">
-        <v>5967018</v>
+        <v>6094259</v>
       </c>
       <c r="F100" t="n">
-        <v>36839</v>
+        <v>188701</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6212122770661743</v>
+        <v>3.195311941733525</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="E101" t="n">
-        <v>6009251</v>
+        <v>6281639</v>
       </c>
       <c r="F101" t="n">
-        <v>42233</v>
+        <v>187380</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7077739668289951</v>
+        <v>3.074697022230266</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="E102" t="n">
-        <v>6058308</v>
+        <v>6470265</v>
       </c>
       <c r="F102" t="n">
-        <v>49057</v>
+        <v>188626</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8163579787231479</v>
+        <v>3.002815029644323</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="E103" t="n">
-        <v>6112815</v>
+        <v>6664098</v>
       </c>
       <c r="F103" t="n">
-        <v>54507</v>
+        <v>193833</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8997066507678397</v>
+        <v>2.995750560448451</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E104" t="n">
-        <v>6170351</v>
+        <v>6865951</v>
       </c>
       <c r="F104" t="n">
-        <v>57536</v>
+        <v>201853</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9412357481782152</v>
+        <v>3.028962059081364</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E105" t="n">
-        <v>6227335</v>
+        <v>7076733</v>
       </c>
       <c r="F105" t="n">
-        <v>56984</v>
+        <v>210782</v>
       </c>
       <c r="G105" t="n">
-        <v>0.923513103225404</v>
+        <v>3.069960738141009</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1995</v>
+        <v>1976</v>
       </c>
       <c r="E106" t="n">
-        <v>6281190</v>
-      </c>
-      <c r="F106" t="n">
-        <v>53855</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.8648161693565637</v>
-      </c>
+        <v>14212145</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1996</v>
+        <v>1977</v>
       </c>
       <c r="E107" t="n">
-        <v>6331280</v>
+        <v>14359624</v>
       </c>
       <c r="F107" t="n">
-        <v>50090</v>
+        <v>147479</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7974603538501546</v>
+        <v>1.037696983812086</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1997</v>
+        <v>1978</v>
       </c>
       <c r="E108" t="n">
-        <v>6378552</v>
+        <v>14499952</v>
       </c>
       <c r="F108" t="n">
-        <v>47272</v>
+        <v>140328</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7466420692182396</v>
+        <v>0.9772400725812869</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="E109" t="n">
-        <v>6423827</v>
+        <v>14643133</v>
       </c>
       <c r="F109" t="n">
-        <v>45275</v>
+        <v>143181</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7098005942414609</v>
+        <v>0.9874584412417287</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E110" t="n">
-        <v>6468476</v>
+        <v>14796174</v>
       </c>
       <c r="F110" t="n">
-        <v>44649</v>
+        <v>153041</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6950529645334491</v>
+        <v>1.045138359393438</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2000</v>
+        <v>1981</v>
       </c>
       <c r="E111" t="n">
-        <v>6513485</v>
+        <v>14958908</v>
       </c>
       <c r="F111" t="n">
-        <v>45009</v>
+        <v>162734</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6958207775680014</v>
+        <v>1.09983837713723</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Caribbean small states</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2001</v>
+        <v>1982</v>
       </c>
       <c r="E112" t="n">
-        <v>6559096</v>
+        <v>15128087</v>
       </c>
       <c r="F112" t="n">
-        <v>45611</v>
+        <v>169179</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7002549326512675</v>
+        <v>1.130958222351519</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="E113" t="n">
-        <v>95440988</v>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+        <v>15303309</v>
+      </c>
+      <c r="F113" t="n">
+        <v>175222</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.158256162857874</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1966</v>
+        <v>1984</v>
       </c>
       <c r="E114" t="n">
-        <v>96146336</v>
+        <v>15483419</v>
       </c>
       <c r="F114" t="n">
-        <v>705348</v>
+        <v>180110</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7390409663403652</v>
+        <v>1.176935001443158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1967</v>
+        <v>1985</v>
       </c>
       <c r="E115" t="n">
-        <v>97043270</v>
+        <v>15665595</v>
       </c>
       <c r="F115" t="n">
-        <v>896934</v>
+        <v>182176</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9328842234820112</v>
+        <v>1.176587677437402</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1968</v>
+        <v>1986</v>
       </c>
       <c r="E116" t="n">
-        <v>97884022</v>
+        <v>15852525</v>
       </c>
       <c r="F116" t="n">
-        <v>840752</v>
+        <v>186930</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8663681675195045</v>
+        <v>1.193251836269216</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1969</v>
+        <v>1987</v>
       </c>
       <c r="E117" t="n">
-        <v>98606630</v>
+        <v>16039251</v>
       </c>
       <c r="F117" t="n">
-        <v>722608</v>
+        <v>186726</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7382287581113145</v>
+        <v>1.177894373293853</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1970</v>
+        <v>1988</v>
       </c>
       <c r="E118" t="n">
-        <v>99134548</v>
+        <v>16206002</v>
       </c>
       <c r="F118" t="n">
-        <v>527918</v>
+        <v>166751</v>
       </c>
       <c r="G118" t="n">
-        <v>0.535377793562164</v>
+        <v>1.039643310027372</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1971</v>
+        <v>1989</v>
       </c>
       <c r="E119" t="n">
-        <v>99635258</v>
+        <v>16249500</v>
       </c>
       <c r="F119" t="n">
-        <v>500710</v>
+        <v>43498</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5050812356556023</v>
+        <v>0.2684067298029502</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1972</v>
+        <v>1990</v>
       </c>
       <c r="E120" t="n">
-        <v>100357161</v>
+        <v>16348000</v>
       </c>
       <c r="F120" t="n">
-        <v>721903</v>
+        <v>98500</v>
       </c>
       <c r="G120" t="n">
-        <v>0.7245457225593777</v>
+        <v>0.6061724976153204</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1973</v>
+        <v>1991</v>
       </c>
       <c r="E121" t="n">
-        <v>101112680</v>
+        <v>16450500</v>
       </c>
       <c r="F121" t="n">
-        <v>755519</v>
+        <v>102500</v>
       </c>
       <c r="G121" t="n">
-        <v>0.7528301841858598</v>
+        <v>0.6269880107658388</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1974</v>
+        <v>1992</v>
       </c>
       <c r="E122" t="n">
-        <v>101939916</v>
+        <v>16439095</v>
       </c>
       <c r="F122" t="n">
-        <v>827236</v>
+        <v>-11405</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8181327999613908</v>
+        <v>-0.06932919972036933</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1975</v>
+        <v>1993</v>
       </c>
       <c r="E123" t="n">
-        <v>102860571</v>
+        <v>16330419</v>
       </c>
       <c r="F123" t="n">
-        <v>920655</v>
+        <v>-108676</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9031349407821798</v>
+        <v>-0.6610826204240583</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="E124" t="n">
-        <v>103776068</v>
+        <v>16095199</v>
       </c>
       <c r="F124" t="n">
-        <v>915497</v>
+        <v>-235220</v>
       </c>
       <c r="G124" t="n">
-        <v>0.8900368635908151</v>
+        <v>-1.440379453827856</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1977</v>
+        <v>1995</v>
       </c>
       <c r="E125" t="n">
-        <v>104616884</v>
+        <v>15815626</v>
       </c>
       <c r="F125" t="n">
-        <v>840816</v>
+        <v>-279573</v>
       </c>
       <c r="G125" t="n">
-        <v>0.8102214857475643</v>
+        <v>-1.736996230987886</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1978</v>
+        <v>1996</v>
       </c>
       <c r="E126" t="n">
-        <v>105329397</v>
+        <v>15577894</v>
       </c>
       <c r="F126" t="n">
-        <v>712513</v>
+        <v>-237732</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6810688416221566</v>
+        <v>-1.503146318710369</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1979</v>
+        <v>1997</v>
       </c>
       <c r="E127" t="n">
-        <v>105948616</v>
+        <v>15333703</v>
       </c>
       <c r="F127" t="n">
-        <v>619219</v>
+        <v>-244191</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5878881087679533</v>
+        <v>-1.567548219290749</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="E128" t="n">
-        <v>106576687</v>
+        <v>15071300</v>
       </c>
       <c r="F128" t="n">
-        <v>628071</v>
+        <v>-262403</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5928071773962484</v>
+        <v>-1.711282656250745</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1981</v>
+        <v>1999</v>
       </c>
       <c r="E129" t="n">
-        <v>107191491</v>
+        <v>14928426</v>
       </c>
       <c r="F129" t="n">
-        <v>614804</v>
+        <v>-142874</v>
       </c>
       <c r="G129" t="n">
-        <v>0.5768653701911486</v>
+        <v>-0.9479872340143136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1982</v>
+        <v>2000</v>
       </c>
       <c r="E130" t="n">
-        <v>107770028</v>
+        <v>14883626</v>
       </c>
       <c r="F130" t="n">
-        <v>578537</v>
+        <v>-44800</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5397228778168506</v>
+        <v>-0.3000986172286391</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1983</v>
+        <v>2001</v>
       </c>
       <c r="E131" t="n">
-        <v>108326149</v>
+        <v>14858335</v>
       </c>
       <c r="F131" t="n">
-        <v>556121</v>
+        <v>-25291</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5160256616060233</v>
+        <v>-0.1699249900528277</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="E132" t="n">
-        <v>108853466</v>
-      </c>
-      <c r="F132" t="n">
-        <v>527317</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.4867864360247776</v>
-      </c>
+        <v>241538008</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="E133" t="n">
-        <v>109360713</v>
+        <v>244018243</v>
       </c>
       <c r="F133" t="n">
-        <v>507247</v>
+        <v>2480235</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4659906741049546</v>
+        <v>1.026850813475289</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="E134" t="n">
-        <v>109846594</v>
+        <v>246601803</v>
       </c>
       <c r="F134" t="n">
-        <v>485881</v>
+        <v>2583560</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4442920923531268</v>
+        <v>1.058756906138369</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="E135" t="n">
-        <v>110296425</v>
+        <v>249310344</v>
       </c>
       <c r="F135" t="n">
-        <v>449831</v>
+        <v>2708541</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4095083731044058</v>
+        <v>1.098345984112692</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="E136" t="n">
-        <v>110686740</v>
+        <v>251795337</v>
       </c>
       <c r="F136" t="n">
-        <v>390315</v>
+        <v>2484993</v>
       </c>
       <c r="G136" t="n">
-        <v>0.3538781968681182</v>
+        <v>0.9967468497817267</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="E137" t="n">
-        <v>110801640</v>
+        <v>254340965</v>
       </c>
       <c r="F137" t="n">
-        <v>114900</v>
+        <v>2545628</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1038064722115761</v>
+        <v>1.010990922361676</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="E138" t="n">
-        <v>110743128</v>
+        <v>256836391</v>
       </c>
       <c r="F138" t="n">
-        <v>-58512</v>
+        <v>2495426</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.05280788262700398</v>
+        <v>0.9811341244223115</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="E139" t="n">
-        <v>110469467</v>
+        <v>259214381</v>
       </c>
       <c r="F139" t="n">
-        <v>-273661</v>
+        <v>2377990</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.2471133016939908</v>
+        <v>0.9258773613588067</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="E140" t="n">
-        <v>110111454</v>
+        <v>261488476</v>
       </c>
       <c r="F140" t="n">
-        <v>-358013</v>
+        <v>2274095</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.3240832147764383</v>
+        <v>0.8773027913138831</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="E141" t="n">
-        <v>110041924</v>
+        <v>263823014</v>
       </c>
       <c r="F141" t="n">
-        <v>-69530</v>
+        <v>2334538</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.06314511113439947</v>
+        <v>0.8927881013004901</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="E142" t="n">
-        <v>110021594</v>
+        <v>266290660</v>
       </c>
       <c r="F142" t="n">
-        <v>-20330</v>
+        <v>2467646</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.01847477694046917</v>
+        <v>0.9353414482635047</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="E143" t="n">
-        <v>109864246</v>
+        <v>268793450</v>
       </c>
       <c r="F143" t="n">
-        <v>-157348</v>
+        <v>2502790</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.1430155611088502</v>
+        <v>0.9398714923009255</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="E144" t="n">
-        <v>109626194</v>
+        <v>271349094</v>
       </c>
       <c r="F144" t="n">
-        <v>-238052</v>
+        <v>2555644</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.2166783177122045</v>
+        <v>0.9507835849422719</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="E145" t="n">
-        <v>109422013</v>
+        <v>274154622</v>
       </c>
       <c r="F145" t="n">
-        <v>-204181</v>
+        <v>2805528</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.1862520192938533</v>
+        <v>1.033918322203786</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="E146" t="n">
-        <v>109238340</v>
+        <v>277373464</v>
       </c>
       <c r="F146" t="n">
-        <v>-183673</v>
+        <v>3218842</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.1678574493050089</v>
+        <v>1.17409729462814</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="E147" t="n">
-        <v>109060951</v>
+        <v>281077441</v>
       </c>
       <c r="F147" t="n">
-        <v>-177389</v>
+        <v>3703977</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.1623871252529052</v>
+        <v>1.335375398419503</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="E148" t="n">
-        <v>108447824</v>
+        <v>284943859</v>
       </c>
       <c r="F148" t="n">
-        <v>-613127</v>
+        <v>3866418</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.5621874689135997</v>
+        <v>1.375570371725421</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Central Europe and the Baltics</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E149" t="n">
-        <v>107660041</v>
+        <v>288662674</v>
       </c>
       <c r="F149" t="n">
-        <v>-787783</v>
+        <v>3718815</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.72641660380387</v>
+        <v>1.305104455681572</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1965</v>
+        <v>1994</v>
       </c>
       <c r="E150" t="n">
-        <v>846970817</v>
-      </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+        <v>292185983</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3523309</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.220562725058105</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1966</v>
+        <v>1995</v>
       </c>
       <c r="E151" t="n">
-        <v>857049045</v>
+        <v>295640057</v>
       </c>
       <c r="F151" t="n">
-        <v>10078228</v>
+        <v>3454074</v>
       </c>
       <c r="G151" t="n">
-        <v>1.189914433616202</v>
+        <v>1.182149110828501</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1967</v>
+        <v>1996</v>
       </c>
       <c r="E152" t="n">
-        <v>866745021</v>
+        <v>299064347</v>
       </c>
       <c r="F152" t="n">
-        <v>9695976</v>
+        <v>3424290</v>
       </c>
       <c r="G152" t="n">
-        <v>1.13132102025737</v>
+        <v>1.158263205178578</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1968</v>
+        <v>1997</v>
       </c>
       <c r="E153" t="n">
-        <v>875528057</v>
+        <v>302623445</v>
       </c>
       <c r="F153" t="n">
-        <v>8783036</v>
+        <v>3559098</v>
       </c>
       <c r="G153" t="n">
-        <v>1.013335616265398</v>
+        <v>1.190077665794109</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1969</v>
+        <v>1998</v>
       </c>
       <c r="E154" t="n">
-        <v>886061016</v>
+        <v>306070116</v>
       </c>
       <c r="F154" t="n">
-        <v>10532959</v>
+        <v>3446671</v>
       </c>
       <c r="G154" t="n">
-        <v>1.203040715347403</v>
+        <v>1.138930594091936</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1970</v>
+        <v>1999</v>
       </c>
       <c r="E155" t="n">
-        <v>895585273</v>
+        <v>309502571</v>
       </c>
       <c r="F155" t="n">
-        <v>9524257</v>
+        <v>3432455</v>
       </c>
       <c r="G155" t="n">
-        <v>1.07489854852163</v>
+        <v>1.121460351914916</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1971</v>
+        <v>2000</v>
       </c>
       <c r="E156" t="n">
-        <v>906059367</v>
+        <v>312909974</v>
       </c>
       <c r="F156" t="n">
-        <v>10474094</v>
+        <v>3407403</v>
       </c>
       <c r="G156" t="n">
-        <v>1.169525037511421</v>
+        <v>1.100928819101799</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>OECD members</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>OED</t>
+          <t>NAC</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1972</v>
+        <v>2001</v>
       </c>
       <c r="E157" t="n">
-        <v>916286623</v>
+        <v>316052361</v>
       </c>
       <c r="F157" t="n">
-        <v>10227256</v>
+        <v>3142387</v>
       </c>
       <c r="G157" t="n">
-        <v>1.128762239262859</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E158" t="n">
-        <v>925600118</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9313495</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1.01643904496902</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>1974</v>
-      </c>
-      <c r="E159" t="n">
-        <v>935983893</v>
-      </c>
-      <c r="F159" t="n">
-        <v>10383775</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1.121842445573251</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>1975</v>
-      </c>
-      <c r="E160" t="n">
-        <v>945871539</v>
-      </c>
-      <c r="F160" t="n">
-        <v>9887646</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1.056390614619263</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E161" t="n">
-        <v>954394265</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8522726</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.9010447665029009</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E162" t="n">
-        <v>963138632</v>
-      </c>
-      <c r="F162" t="n">
-        <v>8744367</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.9162216623336494</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>1978</v>
-      </c>
-      <c r="E163" t="n">
-        <v>971910822</v>
-      </c>
-      <c r="F163" t="n">
-        <v>8772190</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.9107920405792669</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E164" t="n">
-        <v>980829495</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8918673</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.9176431415432784</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>1980</v>
-      </c>
-      <c r="E165" t="n">
-        <v>989638618</v>
-      </c>
-      <c r="F165" t="n">
-        <v>8809123</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.8981299038116619</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E166" t="n">
-        <v>998349556</v>
-      </c>
-      <c r="F166" t="n">
-        <v>8710938</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.8802140338464381</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>1982</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1006653522</v>
-      </c>
-      <c r="F167" t="n">
-        <v>8303966</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.8317693887971211</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1014600264</v>
-      </c>
-      <c r="F168" t="n">
-        <v>7946742</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.7894217649198287</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1022196070</v>
-      </c>
-      <c r="F169" t="n">
-        <v>7595806</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.7486501107395682</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1029842555</v>
-      </c>
-      <c r="F170" t="n">
-        <v>7646485</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.7480448442733767</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1037777618</v>
-      </c>
-      <c r="F171" t="n">
-        <v>7935063</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.770512245922883</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1045652901</v>
-      </c>
-      <c r="F172" t="n">
-        <v>7875283</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.7588603630879209</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1053638658</v>
-      </c>
-      <c r="F173" t="n">
-        <v>7985757</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.7637101176081407</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>1989</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1062081668</v>
-      </c>
-      <c r="F174" t="n">
-        <v>8443010</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.801319307705195</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1071033942</v>
-      </c>
-      <c r="F175" t="n">
-        <v>8952274</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.8428988344048927</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1080817111</v>
-      </c>
-      <c r="F176" t="n">
-        <v>9783169</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.9134322094154435</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1090444452</v>
-      </c>
-      <c r="F177" t="n">
-        <v>9627341</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.8907465381531976</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1099606388</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9161936</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.8402019913252845</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1108313712</v>
-      </c>
-      <c r="F179" t="n">
-        <v>8707324</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.7918582590118683</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1116879852</v>
-      </c>
-      <c r="F180" t="n">
-        <v>8566140</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.7728984950066131</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1125172255</v>
-      </c>
-      <c r="F181" t="n">
-        <v>8292403</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.7424615087424868</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1133422874</v>
-      </c>
-      <c r="F182" t="n">
-        <v>8250619</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.7332760795812465</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1141378668</v>
-      </c>
-      <c r="F183" t="n">
-        <v>7955794</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.7019263668045506</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1149382451</v>
-      </c>
-      <c r="F184" t="n">
-        <v>8003783</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.7012381801409395</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1157244082</v>
-      </c>
-      <c r="F185" t="n">
-        <v>7861631</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.6839873875888802</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>OECD members</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>OED</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1165497846</v>
-      </c>
-      <c r="F186" t="n">
-        <v>8253764</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.7132258551485027</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>1965</v>
-      </c>
-      <c r="E187" t="n">
-        <v>10026016</v>
-      </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>1966</v>
-      </c>
-      <c r="E188" t="n">
-        <v>10214279</v>
-      </c>
-      <c r="F188" t="n">
-        <v>188263</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1.877744858974895</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>1967</v>
-      </c>
-      <c r="E189" t="n">
-        <v>10406026</v>
-      </c>
-      <c r="F189" t="n">
-        <v>191747</v>
-      </c>
-      <c r="G189" t="n">
-        <v>1.877244590636296</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>1968</v>
-      </c>
-      <c r="E190" t="n">
-        <v>10606249</v>
-      </c>
-      <c r="F190" t="n">
-        <v>200223</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1.92410628226376</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E191" t="n">
-        <v>10813743</v>
-      </c>
-      <c r="F191" t="n">
-        <v>207494</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1.956337249860907</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>1970</v>
-      </c>
-      <c r="E192" t="n">
-        <v>11029142</v>
-      </c>
-      <c r="F192" t="n">
-        <v>215399</v>
-      </c>
-      <c r="G192" t="n">
-        <v>1.991900491809351</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>1971</v>
-      </c>
-      <c r="E193" t="n">
-        <v>11255183</v>
-      </c>
-      <c r="F193" t="n">
-        <v>226041</v>
-      </c>
-      <c r="G193" t="n">
-        <v>2.049488527756727</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E194" t="n">
-        <v>11488089</v>
-      </c>
-      <c r="F194" t="n">
-        <v>232906</v>
-      </c>
-      <c r="G194" t="n">
-        <v>2.069322195827472</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11725327</v>
-      </c>
-      <c r="F195" t="n">
-        <v>237238</v>
-      </c>
-      <c r="G195" t="n">
-        <v>2.065078012539767</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>1974</v>
-      </c>
-      <c r="E196" t="n">
-        <v>11968103</v>
-      </c>
-      <c r="F196" t="n">
-        <v>242776</v>
-      </c>
-      <c r="G196" t="n">
-        <v>2.070526476575019</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>1975</v>
-      </c>
-      <c r="E197" t="n">
-        <v>12219436</v>
-      </c>
-      <c r="F197" t="n">
-        <v>251333</v>
-      </c>
-      <c r="G197" t="n">
-        <v>2.10002370467568</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E198" t="n">
-        <v>12475022</v>
-      </c>
-      <c r="F198" t="n">
-        <v>255586</v>
-      </c>
-      <c r="G198" t="n">
-        <v>2.091634998538394</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E199" t="n">
-        <v>12737735</v>
-      </c>
-      <c r="F199" t="n">
-        <v>262713</v>
-      </c>
-      <c r="G199" t="n">
-        <v>2.105912117830333</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>1978</v>
-      </c>
-      <c r="E200" t="n">
-        <v>13008031</v>
-      </c>
-      <c r="F200" t="n">
-        <v>270296</v>
-      </c>
-      <c r="G200" t="n">
-        <v>2.122009917775802</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E201" t="n">
-        <v>13294830</v>
-      </c>
-      <c r="F201" t="n">
-        <v>286799</v>
-      </c>
-      <c r="G201" t="n">
-        <v>2.204784106064928</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>1980</v>
-      </c>
-      <c r="E202" t="n">
-        <v>13598543</v>
-      </c>
-      <c r="F202" t="n">
-        <v>303713</v>
-      </c>
-      <c r="G202" t="n">
-        <v>2.284444404328601</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E203" t="n">
-        <v>13917162</v>
-      </c>
-      <c r="F203" t="n">
-        <v>318619</v>
-      </c>
-      <c r="G203" t="n">
-        <v>2.343037779856272</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>1982</v>
-      </c>
-      <c r="E204" t="n">
-        <v>14253289</v>
-      </c>
-      <c r="F204" t="n">
-        <v>336127</v>
-      </c>
-      <c r="G204" t="n">
-        <v>2.415197868645924</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E205" t="n">
-        <v>14600203</v>
-      </c>
-      <c r="F205" t="n">
-        <v>346914</v>
-      </c>
-      <c r="G205" t="n">
-        <v>2.433922444146042</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E206" t="n">
-        <v>14962381</v>
-      </c>
-      <c r="F206" t="n">
-        <v>362178</v>
-      </c>
-      <c r="G206" t="n">
-        <v>2.48063674183161</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E207" t="n">
-        <v>15347583</v>
-      </c>
-      <c r="F207" t="n">
-        <v>385202</v>
-      </c>
-      <c r="G207" t="n">
-        <v>2.5744699322922</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E208" t="n">
-        <v>15754507</v>
-      </c>
-      <c r="F208" t="n">
-        <v>406924</v>
-      </c>
-      <c r="G208" t="n">
-        <v>2.651388169720281</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E209" t="n">
-        <v>16180181</v>
-      </c>
-      <c r="F209" t="n">
-        <v>425674</v>
-      </c>
-      <c r="G209" t="n">
-        <v>2.701918885814703</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E210" t="n">
-        <v>16610017</v>
-      </c>
-      <c r="F210" t="n">
-        <v>429836</v>
-      </c>
-      <c r="G210" t="n">
-        <v>2.656558662724473</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>1989</v>
-      </c>
-      <c r="E211" t="n">
-        <v>17031547</v>
-      </c>
-      <c r="F211" t="n">
-        <v>421530</v>
-      </c>
-      <c r="G211" t="n">
-        <v>2.537805951673611</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E212" t="n">
-        <v>17430779</v>
-      </c>
-      <c r="F212" t="n">
-        <v>399232</v>
-      </c>
-      <c r="G212" t="n">
-        <v>2.344073618209785</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E213" t="n">
-        <v>17813831</v>
-      </c>
-      <c r="F213" t="n">
-        <v>383052</v>
-      </c>
-      <c r="G213" t="n">
-        <v>2.197560992540848</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E214" t="n">
-        <v>18156566</v>
-      </c>
-      <c r="F214" t="n">
-        <v>342735</v>
-      </c>
-      <c r="G214" t="n">
-        <v>1.923982550412662</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E215" t="n">
-        <v>18476081</v>
-      </c>
-      <c r="F215" t="n">
-        <v>319515</v>
-      </c>
-      <c r="G215" t="n">
-        <v>1.75977660092772</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E216" t="n">
-        <v>18801065</v>
-      </c>
-      <c r="F216" t="n">
-        <v>324984</v>
-      </c>
-      <c r="G216" t="n">
-        <v>1.758944442817723</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E217" t="n">
-        <v>19125016</v>
-      </c>
-      <c r="F217" t="n">
-        <v>323951</v>
-      </c>
-      <c r="G217" t="n">
-        <v>1.723046008297935</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E218" t="n">
-        <v>19460594</v>
-      </c>
-      <c r="F218" t="n">
-        <v>335578</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1.754654741203887</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E219" t="n">
-        <v>19809624</v>
-      </c>
-      <c r="F219" t="n">
-        <v>349030</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1.793521821584676</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E220" t="n">
-        <v>20163885</v>
-      </c>
-      <c r="F220" t="n">
-        <v>354261</v>
-      </c>
-      <c r="G220" t="n">
-        <v>1.788327734034723</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E221" t="n">
-        <v>20540138</v>
-      </c>
-      <c r="F221" t="n">
-        <v>376253</v>
-      </c>
-      <c r="G221" t="n">
-        <v>1.865974736515308</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E222" t="n">
-        <v>20917092</v>
-      </c>
-      <c r="F222" t="n">
-        <v>376954</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1.835206754696594</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Other small states</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>OSS</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E223" t="n">
-        <v>21276743</v>
-      </c>
-      <c r="F223" t="n">
-        <v>359651</v>
-      </c>
-      <c r="G223" t="n">
-        <v>1.71941204829047</v>
+        <v>1.004246352339022</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/comparison_countries.xlsx
+++ b/output/excel/comparison_countries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="E2" t="n">
-        <v>599067779</v>
+        <v>154111175</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -498,88 +498,4252 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="E3" t="n">
-        <v>615054371</v>
+        <v>159218552</v>
       </c>
       <c r="F3" t="n">
-        <v>15986592</v>
+        <v>5107377</v>
       </c>
       <c r="G3" t="n">
-        <v>2.668578174357128</v>
+        <v>3.314086081038581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="E4" t="n">
-        <v>631400656</v>
+        <v>164420785</v>
       </c>
       <c r="F4" t="n">
-        <v>16346285</v>
+        <v>5202233</v>
       </c>
       <c r="G4" t="n">
-        <v>2.657697558253758</v>
+        <v>3.267353543072038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Arab World</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E5" t="n">
+        <v>169698994</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5278209</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.210183554348078</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E6" t="n">
+        <v>175061792</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5362798</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.160182552408064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E7" t="n">
+        <v>180505996</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5444204</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.10987562608751</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E8" t="n">
+        <v>186035305</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5529309</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.063227329024576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E9" t="n">
+        <v>191650331</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5615026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.018258281674013</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E10" t="n">
+        <v>197338142</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5687811</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.967806510075888</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E11" t="n">
+        <v>203084971</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5746829</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.912173461124401</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E12" t="n">
+        <v>208889682</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5804711</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.858267143756299</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E13" t="n">
+        <v>214753970</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5864288</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.807361255880503</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E14" t="n">
+        <v>222653373</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7899403</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.678350160418464</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>228731685</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6078312</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.729943821690939</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E16" t="n">
+        <v>232956352</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4224667</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.846996842610582</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E17" t="n">
+        <v>239243261</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6286909</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.698749764075981</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>245449409</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6206148</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.594074321700535</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E19" t="n">
+        <v>253107289</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7657880</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.119942325874581</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E20" t="n">
+        <v>259000953</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5893664</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.328524011807498</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E21" t="n">
+        <v>264822188</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5821235</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.247572811054477</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E22" t="n">
+        <v>270575803</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5753615</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.172633284035852</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>1999</v>
       </c>
-      <c r="E5" t="n">
-        <v>648148316</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16747660</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.65246160909911</v>
+      <c r="E23" t="n">
+        <v>276393837</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5818034</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.150241793794105</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>282344154</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5950317</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.152839970885467</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>288432163</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6088009</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.156236958956126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E26" t="n">
+        <v>294665185</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6233022</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.161001025395359</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E27" t="n">
+        <v>301113849</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6448664</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.188471637733524</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E28" t="n">
+        <v>307862843</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6748994</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.241342941353719</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E29" t="n">
+        <v>314965793</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7102950</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.307180019123001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E30" t="n">
+        <v>322452754</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7486961</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.377071150707466</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E31" t="n">
+        <v>330290716</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7837962</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.430731914294637</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E32" t="n">
+        <v>338395961</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8105245</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.453973002377707</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E33" t="n">
+        <v>346629220</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8233259</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.433025197957361</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E34" t="n">
+        <v>354890042</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8260822</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.383186853087582</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E35" t="n">
+        <v>363158703</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8268661</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.329921953685021</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E36" t="n">
+        <v>371443547</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8284844</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.2813287776281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E37" t="n">
+        <v>379705719</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8262172</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.224341240204675</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Arab World</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E38" t="n">
+        <v>387907748</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8202029</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.160101517986357</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5360561</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5419884</v>
+      </c>
+      <c r="F40" t="n">
+        <v>59323</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.106656560759212</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5482206</v>
+      </c>
+      <c r="F41" t="n">
+        <v>62322</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.149877008437827</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5548512</v>
+      </c>
+      <c r="F42" t="n">
+        <v>66306</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.209476623096606</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5617885</v>
+      </c>
+      <c r="F43" t="n">
+        <v>69373</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.250299179311498</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5687092</v>
+      </c>
+      <c r="F44" t="n">
+        <v>69207</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.231904889473534</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5751543</v>
+      </c>
+      <c r="F45" t="n">
+        <v>64451</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.133285693285768</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5808179</v>
+      </c>
+      <c r="F46" t="n">
+        <v>56636</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9847096683446521</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5855443</v>
+      </c>
+      <c r="F47" t="n">
+        <v>47264</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8137490252969171</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5894827</v>
+      </c>
+      <c r="F48" t="n">
+        <v>39384</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6726049591807115</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5930179</v>
+      </c>
+      <c r="F49" t="n">
+        <v>35352</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5997122561866464</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5967018</v>
+      </c>
+      <c r="F50" t="n">
+        <v>36839</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6212122770661743</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6009251</v>
+      </c>
+      <c r="F51" t="n">
+        <v>42233</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.7077739668289951</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6058308</v>
+      </c>
+      <c r="F52" t="n">
+        <v>49057</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8163579787231479</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6112815</v>
+      </c>
+      <c r="F53" t="n">
+        <v>54507</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.8997066507678397</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6170351</v>
+      </c>
+      <c r="F54" t="n">
+        <v>57536</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9412357481782152</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6227335</v>
+      </c>
+      <c r="F55" t="n">
+        <v>56984</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.923513103225404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6281190</v>
+      </c>
+      <c r="F56" t="n">
+        <v>53855</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8648161693565637</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6331280</v>
+      </c>
+      <c r="F57" t="n">
+        <v>50090</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.7974603538501546</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6378552</v>
+      </c>
+      <c r="F58" t="n">
+        <v>47272</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7466420692182396</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6423827</v>
+      </c>
+      <c r="F59" t="n">
+        <v>45275</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.7098005942414609</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6468476</v>
+      </c>
+      <c r="F60" t="n">
+        <v>44649</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.6950529645334491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6513485</v>
+      </c>
+      <c r="F61" t="n">
+        <v>45009</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6958207775680014</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6559096</v>
+      </c>
+      <c r="F62" t="n">
+        <v>45611</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.7002549326512675</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6604965</v>
+      </c>
+      <c r="F63" t="n">
+        <v>45869</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.6993189305355418</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6650971</v>
+      </c>
+      <c r="F64" t="n">
+        <v>46006</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.6965366205574197</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6696953</v>
+      </c>
+      <c r="F65" t="n">
+        <v>45982</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.6913576979962865</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6742717</v>
+      </c>
+      <c r="F66" t="n">
+        <v>45764</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.6833555499045518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6788123</v>
+      </c>
+      <c r="F67" t="n">
+        <v>45406</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6734080638413298</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6833393</v>
+      </c>
+      <c r="F68" t="n">
+        <v>45270</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.6669001136249353</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6878978</v>
+      </c>
+      <c r="F69" t="n">
+        <v>45585</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.6670917361258244</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6925452</v>
+      </c>
+      <c r="F70" t="n">
+        <v>46474</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6755945432591837</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6973206</v>
+      </c>
+      <c r="F71" t="n">
+        <v>47754</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.6895434406303025</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7022387</v>
+      </c>
+      <c r="F72" t="n">
+        <v>49181</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.7052853450765673</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7072665</v>
+      </c>
+      <c r="F73" t="n">
+        <v>50278</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.7159673769047581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7123332</v>
+      </c>
+      <c r="F74" t="n">
+        <v>50667</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.7163777727348775</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Caribbean small states</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7173435</v>
+      </c>
+      <c r="F75" t="n">
+        <v>50103</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.7033646613691547</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E76" t="n">
+        <v>105329397</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E77" t="n">
+        <v>105948616</v>
+      </c>
+      <c r="F77" t="n">
+        <v>619219</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.5878881087679533</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E78" t="n">
+        <v>106576687</v>
+      </c>
+      <c r="F78" t="n">
+        <v>628071</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.5928071773962484</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E79" t="n">
+        <v>107191491</v>
+      </c>
+      <c r="F79" t="n">
+        <v>614804</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5768653701911486</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E80" t="n">
+        <v>107770028</v>
+      </c>
+      <c r="F80" t="n">
+        <v>578537</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5397228778168506</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E81" t="n">
+        <v>108326149</v>
+      </c>
+      <c r="F81" t="n">
+        <v>556121</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5160256616060233</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E82" t="n">
+        <v>108853466</v>
+      </c>
+      <c r="F82" t="n">
+        <v>527317</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4867864360247776</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E83" t="n">
+        <v>109360713</v>
+      </c>
+      <c r="F83" t="n">
+        <v>507247</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4659906741049546</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E84" t="n">
+        <v>109846594</v>
+      </c>
+      <c r="F84" t="n">
+        <v>485881</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.4442920923531268</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E85" t="n">
+        <v>110296425</v>
+      </c>
+      <c r="F85" t="n">
+        <v>449831</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.4095083731044058</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E86" t="n">
+        <v>110686740</v>
+      </c>
+      <c r="F86" t="n">
+        <v>390315</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.3538781968681182</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E87" t="n">
+        <v>110801640</v>
+      </c>
+      <c r="F87" t="n">
+        <v>114900</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.1038064722115761</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E88" t="n">
+        <v>110743128</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-58512</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.05280788262700398</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E89" t="n">
+        <v>110469467</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-273661</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.2471133016939908</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E90" t="n">
+        <v>110111454</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-358013</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.3240832147764383</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E91" t="n">
+        <v>110041924</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-69530</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.06314511113439947</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E92" t="n">
+        <v>110021594</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-20330</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.01847477694046917</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E93" t="n">
+        <v>109864246</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-157348</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.1430155611088502</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E94" t="n">
+        <v>109626194</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-238052</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.2166783177122045</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E95" t="n">
+        <v>109422013</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-204181</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.1862520192938533</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E96" t="n">
+        <v>109238340</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-183673</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.1678574493050089</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E97" t="n">
+        <v>109060951</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-177389</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.1623871252529052</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>108447824</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-613127</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.5621874689135997</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E99" t="n">
+        <v>107660041</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-787783</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.72641660380387</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E100" t="n">
+        <v>106959751</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-700290</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.6504641773264819</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E101" t="n">
+        <v>106624167</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-335584</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.3137479256098863</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E102" t="n">
+        <v>106331716</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-292451</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.2742820959154568</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E103" t="n">
+        <v>106041911</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-289805</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.2725480326114527</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E104" t="n">
+        <v>105772481</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-269430</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.2540787858868354</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E105" t="n">
+        <v>105378748</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-393733</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.372245215653022</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E106" t="n">
+        <v>105001883</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-376865</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.357629035410445</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E107" t="n">
+        <v>104800475</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-201408</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.1918137029980671</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E108" t="n">
+        <v>104421447</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-379028</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.3616662996995035</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E109" t="n">
+        <v>104174038</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-247409</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.2369331273488262</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E110" t="n">
+        <v>103935318</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-238720</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.2291549838933982</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E111" t="n">
+        <v>103713726</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-221592</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.2132018300073923</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Central Europe and the Baltics</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E112" t="n">
+        <v>103496179</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-217547</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.2097571926014896</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1513227369</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1536434993</v>
+      </c>
+      <c r="F114" t="n">
+        <v>23207624</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.533650823097155</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1559194619</v>
+      </c>
+      <c r="F115" t="n">
+        <v>22759626</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.48132697469745</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1582789699</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23595080</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.513286392376911</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1608678553</v>
+      </c>
+      <c r="F117" t="n">
+        <v>25888854</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.635647111954075</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1634539937</v>
+      </c>
+      <c r="F118" t="n">
+        <v>25861384</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.607616633650744</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1659131214</v>
+      </c>
+      <c r="F119" t="n">
+        <v>24591277</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.504476975040103</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1684294889</v>
+      </c>
+      <c r="F120" t="n">
+        <v>25163675</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.516677812319189</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1710989831</v>
+      </c>
+      <c r="F121" t="n">
+        <v>26694942</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.584932791421667</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1739071545</v>
+      </c>
+      <c r="F122" t="n">
+        <v>28081714</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.641255458753221</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1767429690</v>
+      </c>
+      <c r="F123" t="n">
+        <v>28358145</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.630648553909841</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1795159128</v>
+      </c>
+      <c r="F124" t="n">
+        <v>27729438</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.568913216570444</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1822193192</v>
+      </c>
+      <c r="F125" t="n">
+        <v>27034064</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.505942486007839</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1848222188</v>
+      </c>
+      <c r="F126" t="n">
+        <v>26028996</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.428443269038393</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1872480731</v>
+      </c>
+      <c r="F127" t="n">
+        <v>24258543</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.312533912724567</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1895897521</v>
+      </c>
+      <c r="F128" t="n">
+        <v>23416790</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.250575752920802</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1919359723</v>
+      </c>
+      <c r="F129" t="n">
+        <v>23462202</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.237524799738376</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1942431457</v>
+      </c>
+      <c r="F130" t="n">
+        <v>23071734</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.20205367047812</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1965146504</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22715047</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.169413052807666</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1987315562</v>
+      </c>
+      <c r="F132" t="n">
+        <v>22169058</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.128112227504441</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2008705489</v>
+      </c>
+      <c r="F133" t="n">
+        <v>21389927</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.076322623794757</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2028650274</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19944785</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9929173345331499</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2047640119</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18989845</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.9360827365554991</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2065912076</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18271957</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.8923422055689745</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2083186112</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17274036</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.8361457489248991</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2099602439</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16416327</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.7880393837802258</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2115458616</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15856177</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.7551990179413215</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2131146832</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15688216</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.7415988136730389</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2146744075</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15597243</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.7318708765534643</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2161785573</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15041498</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.7006656347706475</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2177119142</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15333569</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.7093011069881916</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2192059415</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14940273</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.6862404868791527</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2206884624</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14825209</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.6763141956168228</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2221673110</v>
+      </c>
+      <c r="F146" t="n">
+        <v>14788486</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.670106893635225</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2236819053</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15145943</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.6817358922798444</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2252046977</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15227924</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.680784794799405</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2267482299</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15435322</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.6853907648303847</v>
       </c>
     </row>
   </sheetData>
